--- a/Energy community potential model/_EC_summary.xlsx
+++ b/Energy community potential model/_EC_summary.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Energy-community-potential-model\Energy community potential model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04FC56E-9968-477B-96D9-72214025FDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B995FD5A-1123-42E0-8D46-41798712C0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AD6F2B3-B3D8-4900-A927-DF019433309F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2AD6F2B3-B3D8-4900-A927-DF019433309F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="summary_statistics" sheetId="1" r:id="rId1"/>
+    <sheet name="calibration_statistics" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>year</t>
   </si>
@@ -94,6 +95,15 @@
   <si>
     <t>Projects cummulative</t>
   </si>
+  <si>
+    <t>households groningen</t>
+  </si>
+  <si>
+    <t>households netherlands</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
 </sst>
 </file>
 
@@ -131,9 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,7 +242,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>summary_statistics!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -254,7 +265,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>summary_statistics!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -307,7 +318,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$16</c:f>
+              <c:f>summary_statistics!$L$2:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -371,7 +382,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>summary_statistics!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -394,7 +405,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>summary_statistics!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -447,7 +458,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$16</c:f>
+              <c:f>summary_statistics!$N$2:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -511,7 +522,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>summary_statistics!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -534,7 +545,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>summary_statistics!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -587,7 +598,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$16</c:f>
+              <c:f>summary_statistics!$Q$2:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -669,7 +680,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$O$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$O$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -698,7 +709,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$A$2:$A$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -757,7 +768,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$O$2:$O$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$O$2:$O$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -826,10 +837,10 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$P$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$P$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -855,10 +866,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$A$2:$A$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -914,10 +925,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$P$2:$P$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$P$2:$P$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -973,7 +984,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-240C-419F-A4C1-ADCBC148214A}"/>
                   </c:ext>
@@ -986,10 +997,10 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$R$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$R$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1017,10 +1028,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$A$2:$A$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1076,10 +1087,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$R$2:$R$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$R$2:$R$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1135,7 +1146,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-240C-419F-A4C1-ADCBC148214A}"/>
                   </c:ext>
@@ -1148,10 +1159,10 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$S$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$S$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1179,10 +1190,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$A$2:$A$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1238,10 +1249,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$S$2:$S$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$S$2:$S$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1297,7 +1308,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-240C-419F-A4C1-ADCBC148214A}"/>
                   </c:ext>
@@ -1315,7 +1326,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>summary_statistics!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1339,7 +1350,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>summary_statistics!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1392,7 +1403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$16</c:f>
+              <c:f>summary_statistics!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1715,6 +1726,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="124846736"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1851,7 +1863,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>summary_statistics!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1874,7 +1886,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>summary_statistics!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1927,7 +1939,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:f>summary_statistics!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1991,7 +2003,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>summary_statistics!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2014,7 +2026,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>summary_statistics!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -2067,7 +2079,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$16</c:f>
+              <c:f>summary_statistics!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2131,7 +2143,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>summary_statistics!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2154,7 +2166,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>summary_statistics!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -2207,7 +2219,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$16</c:f>
+              <c:f>summary_statistics!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2289,7 +2301,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$E$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2318,7 +2330,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$A$2:$A$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2377,7 +2389,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$2:$E$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$E$2:$E$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2446,10 +2458,10 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2475,10 +2487,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$A$2:$A$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2534,10 +2546,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$2:$F$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$F$2:$F$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2593,7 +2605,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-F0BB-43EF-BDD3-140C0B75961C}"/>
                   </c:ext>
@@ -2606,10 +2618,10 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$H$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2637,10 +2649,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$A$2:$A$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2696,10 +2708,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$2:$H$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$H$2:$H$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2755,7 +2767,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-F0BB-43EF-BDD3-140C0B75961C}"/>
                   </c:ext>
@@ -2768,10 +2780,10 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$I$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2799,10 +2811,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$A$2:$A$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2858,10 +2870,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$2:$I$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$I$2:$I$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2917,7 +2929,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-F0BB-43EF-BDD3-140C0B75961C}"/>
                   </c:ext>
@@ -2935,7 +2947,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>summary_statistics!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2959,7 +2971,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>summary_statistics!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -3012,7 +3024,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:f>summary_statistics!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3224,6 +3236,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107485968"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -42513,8 +42526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8BF28F-863F-404A-8632-A7586928913E}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42609,7 +42622,7 @@
         <v>17</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="M2:V2" si="0">D2</f>
+        <f t="shared" ref="N2:S2" si="0">D2</f>
         <v>20</v>
       </c>
       <c r="O2">
@@ -42670,7 +42683,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="M3:V8" si="2">N2+D3</f>
+        <f t="shared" ref="N3:S3" si="2">N2+D3</f>
         <v>21</v>
       </c>
       <c r="O3">
@@ -43546,4 +43559,1123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F94C2C-27D9-49D2-80F1-03A3F1312A67}">
+  <dimension ref="A1:W15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>summary_statistics!A1</f>
+        <v>year</v>
+      </c>
+      <c r="B1" t="str">
+        <f>summary_statistics!B1</f>
+        <v>ECs</v>
+      </c>
+      <c r="C1" t="str">
+        <f>summary_statistics!C1</f>
+        <v>EC Members</v>
+      </c>
+      <c r="D1" t="str">
+        <f>summary_statistics!D1</f>
+        <v>Projects</v>
+      </c>
+      <c r="E1" t="str">
+        <f>summary_statistics!E1</f>
+        <v>PV Projects</v>
+      </c>
+      <c r="F1" t="str">
+        <f>summary_statistics!F1</f>
+        <v>Wind Projects</v>
+      </c>
+      <c r="G1" t="str">
+        <f>summary_statistics!G1</f>
+        <v>Installed cap (MW)</v>
+      </c>
+      <c r="H1" t="str">
+        <f>summary_statistics!H1</f>
+        <v>PV Installed cap (MW)</v>
+      </c>
+      <c r="I1" t="str">
+        <f>summary_statistics!I1</f>
+        <v>Wind Installed cap (MW)</v>
+      </c>
+      <c r="L1" t="str">
+        <f>summary_statistics!L1</f>
+        <v>Ecs cummulative</v>
+      </c>
+      <c r="M1" t="str">
+        <f>summary_statistics!M1</f>
+        <v>EC Members cummulative</v>
+      </c>
+      <c r="N1" t="str">
+        <f>summary_statistics!N1</f>
+        <v>Projects cummulative</v>
+      </c>
+      <c r="O1" t="str">
+        <f>summary_statistics!O1</f>
+        <v>PV Projects cummulative</v>
+      </c>
+      <c r="P1" t="str">
+        <f>summary_statistics!P1</f>
+        <v>Wind Projects cummulative</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>summary_statistics!Q1</f>
+        <v>Installed cap (MW)  cummulative</v>
+      </c>
+      <c r="R1" t="str">
+        <f>summary_statistics!R1</f>
+        <v>PV Installed cap (MW) cummulative</v>
+      </c>
+      <c r="S1" t="str">
+        <f>summary_statistics!S1</f>
+        <v>Wind Installed cap (MW) cummulative</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>summary_statistics!A3</f>
+        <v>2010</v>
+      </c>
+      <c r="B2" s="2">
+        <f>summary_statistics!B3*$V$4</f>
+        <v>0.1746987951807229</v>
+      </c>
+      <c r="C2" s="2">
+        <f>summary_statistics!C3*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>summary_statistics!D3*$V$4</f>
+        <v>3.4939759036144581E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <f>summary_statistics!E3*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>summary_statistics!F3*$V$4</f>
+        <v>3.4939759036144581E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <f>summary_statistics!G3*$V$4</f>
+        <v>0.16072289156626507</v>
+      </c>
+      <c r="H2" s="2">
+        <f>summary_statistics!H3*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <f>summary_statistics!I3*$V$4</f>
+        <v>0.16072289156626507</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <f>summary_statistics!L3*$V$4</f>
+        <v>0.7686746987951808</v>
+      </c>
+      <c r="M2" s="2">
+        <f>summary_statistics!M3*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <f>summary_statistics!N3*$V$4</f>
+        <v>0.73373493975903625</v>
+      </c>
+      <c r="O2" s="2">
+        <f>summary_statistics!O3*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <f>summary_statistics!P3*$V$4</f>
+        <v>0.73373493975903625</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>summary_statistics!Q3*$V$4</f>
+        <v>1.2533590361445783</v>
+      </c>
+      <c r="R2" s="2">
+        <f>summary_statistics!R3*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <f>summary_statistics!S3*$V$4</f>
+        <v>1.2533590361445783</v>
+      </c>
+      <c r="V2">
+        <v>290000</v>
+      </c>
+      <c r="W2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>summary_statistics!A4</f>
+        <v>2011</v>
+      </c>
+      <c r="B3" s="2">
+        <f>summary_statistics!B4*$V$4</f>
+        <v>0.3493975903614458</v>
+      </c>
+      <c r="C3" s="2">
+        <f>summary_statistics!C4*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f>summary_statistics!D4*$V$4</f>
+        <v>6.9879518072289162E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <f>summary_statistics!E4*$V$4</f>
+        <v>6.9879518072289162E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <f>summary_statistics!F4*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <f>summary_statistics!G4*$V$4</f>
+        <v>1.0419036144578315E-3</v>
+      </c>
+      <c r="H3" s="2">
+        <f>summary_statistics!H4*$V$4</f>
+        <v>1.0419036144578315E-3</v>
+      </c>
+      <c r="I3" s="2">
+        <f>summary_statistics!I4*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <f>summary_statistics!L4*$V$4</f>
+        <v>1.1180722891566266</v>
+      </c>
+      <c r="M3" s="2">
+        <f>summary_statistics!M4*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <f>summary_statistics!N4*$V$4</f>
+        <v>0.80361445783132535</v>
+      </c>
+      <c r="O3" s="2">
+        <f>summary_statistics!O4*$V$4</f>
+        <v>6.9879518072289162E-2</v>
+      </c>
+      <c r="P3" s="2">
+        <f>summary_statistics!P4*$V$4</f>
+        <v>0.73373493975903625</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>summary_statistics!Q4*$V$4</f>
+        <v>1.2544009397590363</v>
+      </c>
+      <c r="R3" s="2">
+        <f>summary_statistics!R4*$V$4</f>
+        <v>1.0419036144578315E-3</v>
+      </c>
+      <c r="S3" s="2">
+        <f>summary_statistics!S4*$V$4</f>
+        <v>1.2533590361445783</v>
+      </c>
+      <c r="V3">
+        <v>8300000</v>
+      </c>
+      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>summary_statistics!A5</f>
+        <v>2012</v>
+      </c>
+      <c r="B4" s="2">
+        <f>summary_statistics!B5*$V$4</f>
+        <v>0.80361445783132535</v>
+      </c>
+      <c r="C4" s="2">
+        <f>summary_statistics!C5*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f>summary_statistics!D5*$V$4</f>
+        <v>0.31445783132530125</v>
+      </c>
+      <c r="E4" s="2">
+        <f>summary_statistics!E5*$V$4</f>
+        <v>0.2096385542168675</v>
+      </c>
+      <c r="F4" s="2">
+        <f>summary_statistics!F5*$V$4</f>
+        <v>0.10481927710843375</v>
+      </c>
+      <c r="G4" s="2">
+        <f>summary_statistics!G5*$V$4</f>
+        <v>0.23152370120481927</v>
+      </c>
+      <c r="H4" s="2">
+        <f>summary_statistics!H5*$V$4</f>
+        <v>4.4595990361445785E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <f>summary_statistics!I5*$V$4</f>
+        <v>0.18692771084337351</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <f>summary_statistics!L5*$V$4</f>
+        <v>1.9216867469879519</v>
+      </c>
+      <c r="M4" s="2">
+        <f>summary_statistics!M5*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <f>summary_statistics!N5*$V$4</f>
+        <v>1.1180722891566266</v>
+      </c>
+      <c r="O4" s="2">
+        <f>summary_statistics!O5*$V$4</f>
+        <v>0.27951807228915665</v>
+      </c>
+      <c r="P4" s="2">
+        <f>summary_statistics!P5*$V$4</f>
+        <v>0.83855421686747</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>summary_statistics!Q5*$V$4</f>
+        <v>1.4859246409638556</v>
+      </c>
+      <c r="R4" s="2">
+        <f>summary_statistics!R5*$V$4</f>
+        <v>4.5637893975903614E-2</v>
+      </c>
+      <c r="S4" s="2">
+        <f>summary_statistics!S5*$V$4</f>
+        <v>1.4402867469879519</v>
+      </c>
+      <c r="V4">
+        <f>V2/V3</f>
+        <v>3.4939759036144581E-2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>summary_statistics!A6</f>
+        <v>2013</v>
+      </c>
+      <c r="B5" s="2">
+        <f>summary_statistics!B6*$V$4</f>
+        <v>1.8518072289156629</v>
+      </c>
+      <c r="C5" s="2">
+        <f>summary_statistics!C6*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f>summary_statistics!D6*$V$4</f>
+        <v>0.6987951807228916</v>
+      </c>
+      <c r="E5" s="2">
+        <f>summary_statistics!E6*$V$4</f>
+        <v>0.419277108433735</v>
+      </c>
+      <c r="F5" s="2">
+        <f>summary_statistics!F6*$V$4</f>
+        <v>0.27951807228915665</v>
+      </c>
+      <c r="G5" s="2">
+        <f>summary_statistics!G6*$V$4</f>
+        <v>0.47404657831325309</v>
+      </c>
+      <c r="H5" s="2">
+        <f>summary_statistics!H6*$V$4</f>
+        <v>1.4588746987951807E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <f>summary_statistics!I6*$V$4</f>
+        <v>0.45945783132530127</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <f>summary_statistics!L6*$V$4</f>
+        <v>3.7734939759036146</v>
+      </c>
+      <c r="M5" s="2">
+        <f>summary_statistics!M6*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <f>summary_statistics!N6*$V$4</f>
+        <v>1.8168674698795182</v>
+      </c>
+      <c r="O5" s="2">
+        <f>summary_statistics!O6*$V$4</f>
+        <v>0.6987951807228916</v>
+      </c>
+      <c r="P5" s="2">
+        <f>summary_statistics!P6*$V$4</f>
+        <v>1.1180722891566266</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>summary_statistics!Q6*$V$4</f>
+        <v>1.9599712192771086</v>
+      </c>
+      <c r="R5" s="2">
+        <f>summary_statistics!R6*$V$4</f>
+        <v>6.0226640963855424E-2</v>
+      </c>
+      <c r="S5" s="2">
+        <f>summary_statistics!S6*$V$4</f>
+        <v>1.8997445783132532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>summary_statistics!A7</f>
+        <v>2014</v>
+      </c>
+      <c r="B6" s="2">
+        <f>summary_statistics!B7*$V$4</f>
+        <v>1.6421686746987953</v>
+      </c>
+      <c r="C6" s="2">
+        <f>summary_statistics!C7*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>summary_statistics!D7*$V$4</f>
+        <v>0.9783132530120483</v>
+      </c>
+      <c r="E6" s="2">
+        <f>summary_statistics!E7*$V$4</f>
+        <v>0.9084337349397591</v>
+      </c>
+      <c r="F6" s="2">
+        <f>summary_statistics!F7*$V$4</f>
+        <v>6.9879518072289162E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <f>summary_statistics!G7*$V$4</f>
+        <v>7.7231018072289173E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <f>summary_statistics!H7*$V$4</f>
+        <v>4.7532222891566278E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <f>summary_statistics!I7*$V$4</f>
+        <v>2.9698795180722892E-2</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <f>summary_statistics!L7*$V$4</f>
+        <v>5.4156626506024104</v>
+      </c>
+      <c r="M6" s="2">
+        <f>summary_statistics!M7*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <f>summary_statistics!N7*$V$4</f>
+        <v>2.7951807228915664</v>
+      </c>
+      <c r="O6" s="2">
+        <f>summary_statistics!O7*$V$4</f>
+        <v>1.6072289156626507</v>
+      </c>
+      <c r="P6" s="2">
+        <f>summary_statistics!P7*$V$4</f>
+        <v>1.1879518072289157</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>summary_statistics!Q7*$V$4</f>
+        <v>2.0372022373493976</v>
+      </c>
+      <c r="R6" s="2">
+        <f>summary_statistics!R7*$V$4</f>
+        <v>0.10775886385542172</v>
+      </c>
+      <c r="S6" s="2">
+        <f>summary_statistics!S7*$V$4</f>
+        <v>1.9294433734939762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>summary_statistics!A8</f>
+        <v>2015</v>
+      </c>
+      <c r="B7" s="2">
+        <f>summary_statistics!B8*$V$4</f>
+        <v>1.7819277108433735</v>
+      </c>
+      <c r="C7" s="2">
+        <f>summary_statistics!C8*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>summary_statistics!D8*$V$4</f>
+        <v>1.8867469879518073</v>
+      </c>
+      <c r="E7" s="2">
+        <f>summary_statistics!E8*$V$4</f>
+        <v>1.7819277108433735</v>
+      </c>
+      <c r="F7" s="2">
+        <f>summary_statistics!F8*$V$4</f>
+        <v>0.10481927710843375</v>
+      </c>
+      <c r="G7" s="2">
+        <f>summary_statistics!G8*$V$4</f>
+        <v>0.34610678915662657</v>
+      </c>
+      <c r="H7" s="2">
+        <f>summary_statistics!H8*$V$4</f>
+        <v>0.1390887168674699</v>
+      </c>
+      <c r="I7" s="2">
+        <f>summary_statistics!I8*$V$4</f>
+        <v>0.20701807228915664</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <f>summary_statistics!L8*$V$4</f>
+        <v>7.1975903614457835</v>
+      </c>
+      <c r="M7" s="2">
+        <f>summary_statistics!M8*$V$4</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <f>summary_statistics!N8*$V$4</f>
+        <v>4.6819277108433734</v>
+      </c>
+      <c r="O7" s="2">
+        <f>summary_statistics!O8*$V$4</f>
+        <v>3.3891566265060242</v>
+      </c>
+      <c r="P7" s="2">
+        <f>summary_statistics!P8*$V$4</f>
+        <v>1.2927710843373494</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>summary_statistics!Q8*$V$4</f>
+        <v>2.3833090265060246</v>
+      </c>
+      <c r="R7" s="2">
+        <f>summary_statistics!R8*$V$4</f>
+        <v>0.24684758072289162</v>
+      </c>
+      <c r="S7" s="2">
+        <f>summary_statistics!S8*$V$4</f>
+        <v>2.1364614457831328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>summary_statistics!A9</f>
+        <v>2016</v>
+      </c>
+      <c r="B8" s="2">
+        <f>summary_statistics!B9*$V$4</f>
+        <v>1.8168674698795182</v>
+      </c>
+      <c r="C8" s="2">
+        <f>summary_statistics!C9*$V$4</f>
+        <v>1781.9277108433737</v>
+      </c>
+      <c r="D8" s="2">
+        <f>summary_statistics!D9*$V$4</f>
+        <v>2.5855421686746989</v>
+      </c>
+      <c r="E8" s="2">
+        <f>summary_statistics!E9*$V$4</f>
+        <v>2.2710843373493979</v>
+      </c>
+      <c r="F8" s="2">
+        <f>summary_statistics!F9*$V$4</f>
+        <v>0.31445783132530125</v>
+      </c>
+      <c r="G8" s="2">
+        <f>summary_statistics!G9*$V$4</f>
+        <v>1.9214302891566266</v>
+      </c>
+      <c r="H8" s="2">
+        <f>summary_statistics!H9*$V$4</f>
+        <v>0.57450257831325302</v>
+      </c>
+      <c r="I8" s="2">
+        <f>summary_statistics!I9*$V$4</f>
+        <v>1.3469277108433735</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <f>summary_statistics!L9*$V$4</f>
+        <v>9.0144578313253021</v>
+      </c>
+      <c r="M8" s="2">
+        <f>summary_statistics!M9*$V$4</f>
+        <v>1781.9277108433737</v>
+      </c>
+      <c r="N8" s="2">
+        <f>summary_statistics!N9*$V$4</f>
+        <v>7.2674698795180728</v>
+      </c>
+      <c r="O8" s="2">
+        <f>summary_statistics!O9*$V$4</f>
+        <v>5.6602409638554221</v>
+      </c>
+      <c r="P8" s="2">
+        <f>summary_statistics!P9*$V$4</f>
+        <v>1.6072289156626507</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>summary_statistics!Q9*$V$4</f>
+        <v>4.3047393156626512</v>
+      </c>
+      <c r="R8" s="2">
+        <f>summary_statistics!R9*$V$4</f>
+        <v>0.82135015903614472</v>
+      </c>
+      <c r="S8" s="2">
+        <f>summary_statistics!S9*$V$4</f>
+        <v>3.4833891566265063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>summary_statistics!A10</f>
+        <v>2017</v>
+      </c>
+      <c r="B9" s="2">
+        <f>summary_statistics!B10*$V$4</f>
+        <v>1.8168674698795182</v>
+      </c>
+      <c r="C9" s="2">
+        <f>summary_statistics!C10*$V$4</f>
+        <v>419.27710843373495</v>
+      </c>
+      <c r="D9" s="2">
+        <f>summary_statistics!D10*$V$4</f>
+        <v>3.8783132530120485</v>
+      </c>
+      <c r="E9" s="2">
+        <f>summary_statistics!E10*$V$4</f>
+        <v>3.7734939759036146</v>
+      </c>
+      <c r="F9" s="2">
+        <f>summary_statistics!F10*$V$4</f>
+        <v>0.10481927710843375</v>
+      </c>
+      <c r="G9" s="2">
+        <f>summary_statistics!G10*$V$4</f>
+        <v>0.60678724564926378</v>
+      </c>
+      <c r="H9" s="2">
+        <f>summary_statistics!H10*$V$4</f>
+        <v>0.46978845046854084</v>
+      </c>
+      <c r="I9" s="2">
+        <f>summary_statistics!I10*$V$4</f>
+        <v>0.13699879518072289</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <f>summary_statistics!L10*$V$4</f>
+        <v>10.831325301204821</v>
+      </c>
+      <c r="M9" s="2">
+        <f>summary_statistics!M10*$V$4</f>
+        <v>2201.2048192771085</v>
+      </c>
+      <c r="N9" s="2">
+        <f>summary_statistics!N10*$V$4</f>
+        <v>11.145783132530122</v>
+      </c>
+      <c r="O9" s="2">
+        <f>summary_statistics!O10*$V$4</f>
+        <v>9.4337349397590362</v>
+      </c>
+      <c r="P9" s="2">
+        <f>summary_statistics!P10*$V$4</f>
+        <v>1.7120481927710844</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>summary_statistics!Q10*$V$4</f>
+        <v>4.9115265613119155</v>
+      </c>
+      <c r="R9" s="2">
+        <f>summary_statistics!R10*$V$4</f>
+        <v>1.2911386095046855</v>
+      </c>
+      <c r="S9" s="2">
+        <f>summary_statistics!S10*$V$4</f>
+        <v>3.6203879518072295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>summary_statistics!A11</f>
+        <v>2018</v>
+      </c>
+      <c r="B10" s="2">
+        <f>summary_statistics!B11*$V$4</f>
+        <v>2.51566265060241</v>
+      </c>
+      <c r="C10" s="2">
+        <f>summary_statistics!C11*$V$4</f>
+        <v>174.6987951807229</v>
+      </c>
+      <c r="D10" s="2">
+        <f>summary_statistics!D11*$V$4</f>
+        <v>6.6734939759036154</v>
+      </c>
+      <c r="E10" s="2">
+        <f>summary_statistics!E11*$V$4</f>
+        <v>6.3939759036144581</v>
+      </c>
+      <c r="F10" s="2">
+        <f>summary_statistics!F11*$V$4</f>
+        <v>0.27951807228915665</v>
+      </c>
+      <c r="G10" s="2">
+        <f>summary_statistics!G11*$V$4</f>
+        <v>2.8819723266398931</v>
+      </c>
+      <c r="H10" s="2">
+        <f>summary_statistics!H11*$V$4</f>
+        <v>1.2820807603748328</v>
+      </c>
+      <c r="I10" s="2">
+        <f>summary_statistics!I11*$V$4</f>
+        <v>1.5998915662650603</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <f>summary_statistics!L11*$V$4</f>
+        <v>13.346987951807231</v>
+      </c>
+      <c r="M10" s="2">
+        <f>summary_statistics!M11*$V$4</f>
+        <v>2375.9036144578317</v>
+      </c>
+      <c r="N10" s="2">
+        <f>summary_statistics!N11*$V$4</f>
+        <v>17.819277108433738</v>
+      </c>
+      <c r="O10" s="2">
+        <f>summary_statistics!O11*$V$4</f>
+        <v>15.827710843373495</v>
+      </c>
+      <c r="P10" s="2">
+        <f>summary_statistics!P11*$V$4</f>
+        <v>1.991566265060241</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>summary_statistics!Q11*$V$4</f>
+        <v>7.7934988879518086</v>
+      </c>
+      <c r="R10" s="2">
+        <f>summary_statistics!R11*$V$4</f>
+        <v>2.573219369879518</v>
+      </c>
+      <c r="S10" s="2">
+        <f>summary_statistics!S11*$V$4</f>
+        <v>5.2202795180722905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>summary_statistics!A12</f>
+        <v>2019</v>
+      </c>
+      <c r="B11" s="2">
+        <f>summary_statistics!B12*$V$4</f>
+        <v>2.3060240963855425</v>
+      </c>
+      <c r="C11" s="2">
+        <f>summary_statistics!C12*$V$4</f>
+        <v>690.40963855421694</v>
+      </c>
+      <c r="D11" s="2">
+        <f>summary_statistics!D12*$V$4</f>
+        <v>7.0578313253012057</v>
+      </c>
+      <c r="E11" s="2">
+        <f>summary_statistics!E12*$V$4</f>
+        <v>6.8132530120481931</v>
+      </c>
+      <c r="F11" s="2">
+        <f>summary_statistics!F12*$V$4</f>
+        <v>0.24457831325301208</v>
+      </c>
+      <c r="G11" s="2">
+        <f>summary_statistics!G12*$V$4</f>
+        <v>2.7543850602409643</v>
+      </c>
+      <c r="H11" s="2">
+        <f>summary_statistics!H12*$V$4</f>
+        <v>1.5273007228915667</v>
+      </c>
+      <c r="I11" s="2">
+        <f>summary_statistics!I12*$V$4</f>
+        <v>1.2270843373493976</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <f>summary_statistics!L12*$V$4</f>
+        <v>15.653012048192773</v>
+      </c>
+      <c r="M11" s="2">
+        <f>summary_statistics!M12*$V$4</f>
+        <v>3066.3132530120483</v>
+      </c>
+      <c r="N11" s="2">
+        <f>summary_statistics!N12*$V$4</f>
+        <v>24.877108433734943</v>
+      </c>
+      <c r="O11" s="2">
+        <f>summary_statistics!O12*$V$4</f>
+        <v>22.640963855421688</v>
+      </c>
+      <c r="P11" s="2">
+        <f>summary_statistics!P12*$V$4</f>
+        <v>2.2361445783132532</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>summary_statistics!Q12*$V$4</f>
+        <v>10.547883948192773</v>
+      </c>
+      <c r="R11" s="2">
+        <f>summary_statistics!R12*$V$4</f>
+        <v>4.1005200927710845</v>
+      </c>
+      <c r="S11" s="2">
+        <f>summary_statistics!S12*$V$4</f>
+        <v>6.4473638554216883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>summary_statistics!A13</f>
+        <v>2020</v>
+      </c>
+      <c r="B12" s="2">
+        <f>summary_statistics!B13*$V$4</f>
+        <v>1.8518072289156629</v>
+      </c>
+      <c r="C12" s="2">
+        <f>summary_statistics!C13*$V$4</f>
+        <v>299.46867469879521</v>
+      </c>
+      <c r="D12" s="2">
+        <f>summary_statistics!D13*$V$4</f>
+        <v>6.1843373493975911</v>
+      </c>
+      <c r="E12" s="2">
+        <f>summary_statistics!E13*$V$4</f>
+        <v>5.9746987951807231</v>
+      </c>
+      <c r="F12" s="2">
+        <f>summary_statistics!F13*$V$4</f>
+        <v>0.2096385542168675</v>
+      </c>
+      <c r="G12" s="2">
+        <f>summary_statistics!G13*$V$4</f>
+        <v>3.17087886746988</v>
+      </c>
+      <c r="H12" s="2">
+        <f>summary_statistics!H13*$V$4</f>
+        <v>1.8739150120481931</v>
+      </c>
+      <c r="I12" s="2">
+        <f>summary_statistics!I13*$V$4</f>
+        <v>1.2969638554216867</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <f>summary_statistics!L13*$V$4</f>
+        <v>17.504819277108435</v>
+      </c>
+      <c r="M12" s="2">
+        <f>summary_statistics!M13*$V$4</f>
+        <v>3365.7819277108438</v>
+      </c>
+      <c r="N12" s="2">
+        <f>summary_statistics!N13*$V$4</f>
+        <v>31.061445783132534</v>
+      </c>
+      <c r="O12" s="2">
+        <f>summary_statistics!O13*$V$4</f>
+        <v>28.615662650602413</v>
+      </c>
+      <c r="P12" s="2">
+        <f>summary_statistics!P13*$V$4</f>
+        <v>2.4457831325301207</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>summary_statistics!Q13*$V$4</f>
+        <v>13.718762815662654</v>
+      </c>
+      <c r="R12" s="2">
+        <f>summary_statistics!R13*$V$4</f>
+        <v>5.9744351048192783</v>
+      </c>
+      <c r="S12" s="2">
+        <f>summary_statistics!S13*$V$4</f>
+        <v>7.7443277108433746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>summary_statistics!A14</f>
+        <v>2021</v>
+      </c>
+      <c r="B13" s="2">
+        <f>summary_statistics!B14*$V$4</f>
+        <v>1.3975903614457832</v>
+      </c>
+      <c r="C13" s="2">
+        <f>summary_statistics!C14*$V$4</f>
+        <v>529.16265060240971</v>
+      </c>
+      <c r="D13" s="2">
+        <f>summary_statistics!D14*$V$4</f>
+        <v>4.507228915662651</v>
+      </c>
+      <c r="E13" s="2">
+        <f>summary_statistics!E14*$V$4</f>
+        <v>3.9831325301204821</v>
+      </c>
+      <c r="F13" s="2">
+        <f>summary_statistics!F14*$V$4</f>
+        <v>0.52409638554216875</v>
+      </c>
+      <c r="G13" s="2">
+        <f>summary_statistics!G14*$V$4</f>
+        <v>4.6087539452354882</v>
+      </c>
+      <c r="H13" s="2">
+        <f>summary_statistics!H14*$V$4</f>
+        <v>1.5213497831325302</v>
+      </c>
+      <c r="I13" s="2">
+        <f>summary_statistics!I14*$V$4</f>
+        <v>3.087404162102958</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <f>summary_statistics!L14*$V$4</f>
+        <v>18.902409638554218</v>
+      </c>
+      <c r="M13" s="2">
+        <f>summary_statistics!M14*$V$4</f>
+        <v>3894.9445783132533</v>
+      </c>
+      <c r="N13" s="2">
+        <f>summary_statistics!N14*$V$4</f>
+        <v>35.568674698795185</v>
+      </c>
+      <c r="O13" s="2">
+        <f>summary_statistics!O14*$V$4</f>
+        <v>32.598795180722895</v>
+      </c>
+      <c r="P13" s="2">
+        <f>summary_statistics!P14*$V$4</f>
+        <v>2.9698795180722892</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>summary_statistics!Q14*$V$4</f>
+        <v>18.327516760898142</v>
+      </c>
+      <c r="R13" s="2">
+        <f>summary_statistics!R14*$V$4</f>
+        <v>7.4957848879518085</v>
+      </c>
+      <c r="S13" s="2">
+        <f>summary_statistics!S14*$V$4</f>
+        <v>10.831731872946333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>summary_statistics!A15</f>
+        <v>2022</v>
+      </c>
+      <c r="B14" s="2">
+        <f>summary_statistics!B15*$V$4</f>
+        <v>0.80361445783132535</v>
+      </c>
+      <c r="C14" s="2">
+        <f>summary_statistics!C15*$V$4</f>
+        <v>305.30361445783137</v>
+      </c>
+      <c r="D14" s="2">
+        <f>summary_statistics!D15*$V$4</f>
+        <v>6.289156626506025</v>
+      </c>
+      <c r="E14" s="2">
+        <f>summary_statistics!E15*$V$4</f>
+        <v>6.1144578313253017</v>
+      </c>
+      <c r="F14" s="2">
+        <f>summary_statistics!F15*$V$4</f>
+        <v>0.1746987951807229</v>
+      </c>
+      <c r="G14" s="2">
+        <f>summary_statistics!G15*$V$4</f>
+        <v>2.8425902660229649</v>
+      </c>
+      <c r="H14" s="2">
+        <f>summary_statistics!H15*$V$4</f>
+        <v>2.1571776691566265</v>
+      </c>
+      <c r="I14" s="2">
+        <f>summary_statistics!I15*$V$4</f>
+        <v>0.6854125968663386</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
+        <f>summary_statistics!L15*$V$4</f>
+        <v>19.706024096385544</v>
+      </c>
+      <c r="M14" s="2">
+        <f>summary_statistics!M15*$V$4</f>
+        <v>4200.2481927710851</v>
+      </c>
+      <c r="N14" s="2">
+        <f>summary_statistics!N15*$V$4</f>
+        <v>41.857831325301206</v>
+      </c>
+      <c r="O14" s="2">
+        <f>summary_statistics!O15*$V$4</f>
+        <v>38.713253012048199</v>
+      </c>
+      <c r="P14" s="2">
+        <f>summary_statistics!P15*$V$4</f>
+        <v>3.1445783132530125</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>summary_statistics!Q15*$V$4</f>
+        <v>21.170107026921105</v>
+      </c>
+      <c r="R14" s="2">
+        <f>summary_statistics!R15*$V$4</f>
+        <v>9.6529625571084345</v>
+      </c>
+      <c r="S14" s="2">
+        <f>summary_statistics!S15*$V$4</f>
+        <v>11.517144469812672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>summary_statistics!A16</f>
+        <v>2023</v>
+      </c>
+      <c r="B15" s="2">
+        <f>summary_statistics!B16*$V$4</f>
+        <v>0.3843373493975904</v>
+      </c>
+      <c r="C15" s="2">
+        <f>summary_statistics!C16*$V$4</f>
+        <v>383.1493975903615</v>
+      </c>
+      <c r="D15" s="2">
+        <f>summary_statistics!D16*$V$4</f>
+        <v>5.2759036144578317</v>
+      </c>
+      <c r="E15" s="2">
+        <f>summary_statistics!E16*$V$4</f>
+        <v>5.1012048192771084</v>
+      </c>
+      <c r="F15" s="2">
+        <f>summary_statistics!F16*$V$4</f>
+        <v>0.1746987951807229</v>
+      </c>
+      <c r="G15" s="2">
+        <f>summary_statistics!G16*$V$4</f>
+        <v>2.2628178349397592</v>
+      </c>
+      <c r="H15" s="2">
+        <f>summary_statistics!H16*$V$4</f>
+        <v>1.4969383168674701</v>
+      </c>
+      <c r="I15" s="2">
+        <f>summary_statistics!I16*$V$4</f>
+        <v>0.76587951807228927</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
+        <f>summary_statistics!L16*$V$4</f>
+        <v>20.090361445783135</v>
+      </c>
+      <c r="M15" s="2">
+        <f>summary_statistics!M16*$V$4</f>
+        <v>4583.3975903614464</v>
+      </c>
+      <c r="N15" s="2">
+        <f>summary_statistics!N16*$V$4</f>
+        <v>47.133734939759037</v>
+      </c>
+      <c r="O15" s="2">
+        <f>summary_statistics!O16*$V$4</f>
+        <v>43.814457831325306</v>
+      </c>
+      <c r="P15" s="2">
+        <f>summary_statistics!P16*$V$4</f>
+        <v>3.3192771084337354</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>summary_statistics!Q16*$V$4</f>
+        <v>23.432924861860865</v>
+      </c>
+      <c r="R15" s="2">
+        <f>summary_statistics!R16*$V$4</f>
+        <v>11.149900873975904</v>
+      </c>
+      <c r="S15" s="2">
+        <f>summary_statistics!S16*$V$4</f>
+        <v>12.283023987884961</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Energy community potential model/_EC_summary.xlsx
+++ b/Energy community potential model/_EC_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Energy-community-potential-model\Energy community potential model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B995FD5A-1123-42E0-8D46-41798712C0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583F17C0-0DB2-4B26-AA85-8B637A677D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2AD6F2B3-B3D8-4900-A927-DF019433309F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AD6F2B3-B3D8-4900-A927-DF019433309F}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_statistics" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>year</t>
   </si>
@@ -70,30 +71,6 @@
   </si>
   <si>
     <t>Installed cap (MW)</t>
-  </si>
-  <si>
-    <t>EC Members cummulative</t>
-  </si>
-  <si>
-    <t>Ecs cummulative</t>
-  </si>
-  <si>
-    <t>Installed cap (MW)  cummulative</t>
-  </si>
-  <si>
-    <t>PV Installed cap (MW) cummulative</t>
-  </si>
-  <si>
-    <t>Wind Installed cap (MW) cummulative</t>
-  </si>
-  <si>
-    <t>Wind Projects cummulative</t>
-  </si>
-  <si>
-    <t>PV Projects cummulative</t>
-  </si>
-  <si>
-    <t>Projects cummulative</t>
   </si>
   <si>
     <t>households groningen</t>
@@ -246,7 +223,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ecs cummulative</c:v>
+                  <c:v>ECs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -386,7 +363,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Projects cummulative</c:v>
+                  <c:v>Projects</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -526,7 +503,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Installed cap (MW)  cummulative</c:v>
+                  <c:v>Installed cap (MW)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -687,7 +664,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>PV Projects cummulative</c:v>
+                        <c:v>PV Projects</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -847,7 +824,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Wind Projects cummulative</c:v>
+                        <c:v>Wind Projects</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1007,7 +984,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>PV Installed cap (MW) cummulative</c:v>
+                        <c:v>PV Installed cap (MW)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1169,7 +1146,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Wind Installed cap (MW) cummulative</c:v>
+                        <c:v>Wind Installed cap (MW)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1330,7 +1307,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EC Members cummulative</c:v>
+                  <c:v>EC Members</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -42207,6 +42184,19 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -42526,8 +42516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8BF28F-863F-404A-8632-A7586928913E}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42561,28 +42551,28 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -43565,8 +43555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F94C2C-27D9-49D2-80F1-03A3F1312A67}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43617,35 +43607,35 @@
       </c>
       <c r="L1" t="str">
         <f>summary_statistics!L1</f>
-        <v>Ecs cummulative</v>
+        <v>ECs</v>
       </c>
       <c r="M1" t="str">
         <f>summary_statistics!M1</f>
-        <v>EC Members cummulative</v>
+        <v>EC Members</v>
       </c>
       <c r="N1" t="str">
         <f>summary_statistics!N1</f>
-        <v>Projects cummulative</v>
+        <v>Projects</v>
       </c>
       <c r="O1" t="str">
         <f>summary_statistics!O1</f>
-        <v>PV Projects cummulative</v>
+        <v>PV Projects</v>
       </c>
       <c r="P1" t="str">
         <f>summary_statistics!P1</f>
-        <v>Wind Projects cummulative</v>
+        <v>Wind Projects</v>
       </c>
       <c r="Q1" t="str">
         <f>summary_statistics!Q1</f>
-        <v>Installed cap (MW)  cummulative</v>
+        <v>Installed cap (MW)</v>
       </c>
       <c r="R1" t="str">
         <f>summary_statistics!R1</f>
-        <v>PV Installed cap (MW) cummulative</v>
+        <v>PV Installed cap (MW)</v>
       </c>
       <c r="S1" t="str">
         <f>summary_statistics!S1</f>
-        <v>Wind Installed cap (MW) cummulative</v>
+        <v>Wind Installed cap (MW)</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -43723,7 +43713,7 @@
         <v>290000</v>
       </c>
       <c r="W2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -43801,7 +43791,7 @@
         <v>8300000</v>
       </c>
       <c r="W3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -43880,7 +43870,7 @@
         <v>3.4939759036144581E-2</v>
       </c>
       <c r="W4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">

--- a/Energy community potential model/_EC_summary.xlsx
+++ b/Energy community potential model/_EC_summary.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Energy-community-potential-model\Energy community potential model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583F17C0-0DB2-4B26-AA85-8B637A677D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA4ACD-1335-41FD-98E2-41A95ABF7D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AD6F2B3-B3D8-4900-A927-DF019433309F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{2AD6F2B3-B3D8-4900-A927-DF019433309F}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_statistics" sheetId="1" r:id="rId1"/>
     <sheet name="calibration_statistics" sheetId="2" r:id="rId2"/>
+    <sheet name="calibration_statistics_groninge" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>ratio</t>
+  </si>
+  <si>
+    <t>year2</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_statistics!$L$1</c:f>
+              <c:f>summary_statistics!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -295,7 +298,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary_statistics!$L$2:$L$16</c:f>
+              <c:f>summary_statistics!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -359,7 +362,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_statistics!$N$1</c:f>
+              <c:f>summary_statistics!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -435,7 +438,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary_statistics!$N$2:$N$16</c:f>
+              <c:f>summary_statistics!$O$2:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -499,7 +502,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_statistics!$Q$1</c:f>
+              <c:f>summary_statistics!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -575,7 +578,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary_statistics!$Q$2:$Q$16</c:f>
+              <c:f>summary_statistics!$R$2:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -657,7 +660,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$O$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$P$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -745,7 +748,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$O$2:$O$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$P$2:$P$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -817,7 +820,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$P$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$Q$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -905,7 +908,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$P$2:$P$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$Q$2:$Q$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -977,7 +980,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$R$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$S$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1067,7 +1070,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$R$2:$R$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$S$2:$S$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1139,7 +1142,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$S$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$T$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1229,7 +1232,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$S$2:$S$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$T$2:$T$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1303,7 +1306,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_statistics!$M$1</c:f>
+              <c:f>summary_statistics!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1380,7 +1383,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary_statistics!$M$2:$M$16</c:f>
+              <c:f>summary_statistics!$N$2:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1840,7 +1843,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_statistics!$B$1</c:f>
+              <c:f>summary_statistics!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1916,7 +1919,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary_statistics!$B$2:$B$16</c:f>
+              <c:f>summary_statistics!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1980,7 +1983,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_statistics!$D$1</c:f>
+              <c:f>summary_statistics!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2056,7 +2059,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary_statistics!$D$2:$D$16</c:f>
+              <c:f>summary_statistics!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2120,7 +2123,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_statistics!$G$1</c:f>
+              <c:f>summary_statistics!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2196,7 +2199,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary_statistics!$G$2:$G$16</c:f>
+              <c:f>summary_statistics!$H$2:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2278,7 +2281,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$E$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2366,7 +2369,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$E$2:$E$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$F$2:$F$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2438,7 +2441,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$F$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2526,7 +2529,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$F$2:$F$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$G$2:$G$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2598,7 +2601,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$H$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$I$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2688,7 +2691,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$H$2:$H$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$I$2:$I$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2760,7 +2763,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$I$1</c15:sqref>
+                          <c15:sqref>summary_statistics!$J$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2850,7 +2853,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_statistics!$I$2:$I$16</c15:sqref>
+                          <c15:sqref>summary_statistics!$J$2:$J$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2924,7 +2927,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_statistics!$C$1</c:f>
+              <c:f>summary_statistics!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3001,7 +3004,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary_statistics!$C$2:$C$16</c:f>
+              <c:f>summary_statistics!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4411,13 +4414,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -4447,13 +4450,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
@@ -4494,7 +4497,7 @@
       <sheetName val="energy_communities"/>
       <sheetName val="community_projects"/>
       <sheetName val="EC_projects"/>
-      <sheetName val="Blad3"/>
+      <sheetName val="project_size"/>
       <sheetName val="Gemeenten_alfabetisch"/>
       <sheetName val="Proffesionalization"/>
       <sheetName val="professionalization_strategies"/>
@@ -42179,19 +42182,6 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -42514,1033 +42504,1081 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8BF28F-863F-404A-8632-A7586928913E}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
+        <v>2009</v>
+      </c>
+      <c r="C2">
         <f>COUNTIF([1]energy_communities!$J:$J, "&lt; 2010")</f>
         <v>17</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f>COUNTIFS([1]community_projects!$H:$H, "&lt;2010", [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>20</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>COUNTIFS([1]EC_projects!$H:$H,"&lt;2010", [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>COUNTIFS([1]EC_projects!$H:$H,"&lt;2010", [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>20</v>
       </c>
-      <c r="G2" s="1">
-        <f>SUM(H2:I2)</f>
+      <c r="H2" s="1">
+        <f>SUM(I2:J2)</f>
         <v>31.271999999999998</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, "&lt; 2010",[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>0</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, "&lt; 2010",[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>31.271999999999998</v>
       </c>
-      <c r="L2">
-        <f>B2</f>
+      <c r="M2">
+        <f>C2</f>
         <v>17</v>
       </c>
-      <c r="N2">
-        <f t="shared" ref="N2:S2" si="0">D2</f>
+      <c r="O2">
+        <f t="shared" ref="O2:T2" si="0">E2</f>
         <v>20</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <f t="shared" si="0"/>
         <v>31.271999999999998</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <f t="shared" si="0"/>
         <v>31.271999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2010</v>
       </c>
       <c r="B3">
+        <v>2010</v>
+      </c>
+      <c r="C3">
         <f>COUNTIF([1]energy_communities!$J:$J, $A3)</f>
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f>COUNTIFS([1]community_projects!$H:$H, $A3, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A3, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A3, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G16" si="1">SUM(H3:I3)</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H16" si="1">SUM(I3:J3)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A3,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A3,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="L3">
-        <f>L2+B3</f>
+      <c r="M3">
+        <f>M2+C3</f>
         <v>22</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:S3" si="2">N2+D3</f>
+      <c r="O3">
+        <f t="shared" ref="O3:T3" si="2">O2+E3</f>
         <v>21</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <f t="shared" si="2"/>
         <v>35.872</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <f t="shared" si="2"/>
         <v>35.872</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2011</v>
       </c>
       <c r="B4">
+        <v>2011</v>
+      </c>
+      <c r="C4">
         <f>COUNTIF([1]energy_communities!$J:$J, $A4)</f>
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f>COUNTIFS([1]community_projects!$H:$H, $A4, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A4, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A4, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
         <v>2.9819999999999999E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A4,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>2.9819999999999999E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A4,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>0</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L16" si="3">L3+B4</f>
+      <c r="M4">
+        <f t="shared" ref="M4:M16" si="3">M3+C4</f>
         <v>32</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N16" si="4">N3+D4</f>
+      <c r="O4">
+        <f t="shared" ref="O4:O16" si="4">O3+E4</f>
         <v>23</v>
       </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O16" si="5">O3+E4</f>
+      <c r="P4">
+        <f t="shared" ref="P4:P16" si="5">P3+F4</f>
         <v>2</v>
       </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P16" si="6">P3+F4</f>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q16" si="6">Q3+G4</f>
         <v>21</v>
       </c>
-      <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q16" si="7">Q3+G4</f>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R16" si="7">R3+H4</f>
         <v>35.901820000000001</v>
       </c>
-      <c r="R4" s="1">
-        <f t="shared" ref="R4:R16" si="8">R3+H4</f>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S16" si="8">S3+I4</f>
         <v>2.9819999999999999E-2</v>
       </c>
-      <c r="S4" s="1">
-        <f t="shared" ref="S4:S16" si="9">S3+I4</f>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T16" si="9">T3+J4</f>
         <v>35.872</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2012</v>
       </c>
       <c r="B5">
+        <v>2012</v>
+      </c>
+      <c r="C5">
         <f>COUNTIF([1]energy_communities!$J:$J, $A5)</f>
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f>COUNTIFS([1]community_projects!$H:$H, $A5, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A5, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>6</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A5, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>6.6263679999999994</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A5,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>1.2763679999999999</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A5,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>5.35</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <f t="shared" si="7"/>
         <v>42.528188</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <f t="shared" si="8"/>
         <v>1.3061879999999999</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <f t="shared" si="9"/>
         <v>41.222000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2013</v>
       </c>
       <c r="B6">
+        <v>2013</v>
+      </c>
+      <c r="C6">
         <f>COUNTIF([1]energy_communities!$J:$J, $A6)</f>
         <v>53</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f>COUNTIFS([1]community_projects!$H:$H, $A6, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A6, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>12</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A6, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>8</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>13.567540000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A6,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>0.41753999999999997</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A6,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>13.15</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <f t="shared" si="7"/>
         <v>56.095728000000001</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <f t="shared" si="8"/>
         <v>1.7237279999999999</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <f t="shared" si="9"/>
         <v>54.372</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2014</v>
       </c>
       <c r="B7">
+        <v>2014</v>
+      </c>
+      <c r="C7">
         <f>COUNTIF([1]energy_communities!$J:$J, $A7)</f>
         <v>47</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f>COUNTIFS([1]community_projects!$H:$H, $A7, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A7, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>26</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A7, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>2.2104050000000002</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A7,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>1.3604050000000003</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A7,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>0.85</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="3"/>
         <v>155</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <f t="shared" si="7"/>
         <v>58.306133000000003</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <f t="shared" si="8"/>
         <v>3.0841330000000005</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <f t="shared" si="9"/>
         <v>55.222000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
       <c r="B8">
+        <v>2015</v>
+      </c>
+      <c r="C8">
         <f>COUNTIF([1]energy_communities!$J:$J, $A8)</f>
         <v>51</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f>COUNTIFS([1]community_projects!$H:$H, $A8, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>54</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A8, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>51</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A8, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>9.9058150000000005</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A8,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>3.9808150000000007</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A8,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>5.9249999999999998</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <f t="shared" si="7"/>
         <v>68.211948000000007</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <f t="shared" si="8"/>
         <v>7.0649480000000011</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <f t="shared" si="9"/>
         <v>61.146999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2016</v>
       </c>
       <c r="B9">
+        <v>2016</v>
+      </c>
+      <c r="C9">
         <f>COUNTIF([1]energy_communities!$J:$J, $A9)</f>
         <v>52</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>51000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f>COUNTIFS([1]community_projects!$H:$H, $A9, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>74</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A9, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>65</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A9, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>9</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>54.992660000000001</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A9,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>16.44266</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A9,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>38.549999999999997</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>51000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="4"/>
         <v>208</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <f t="shared" si="7"/>
         <v>123.20460800000001</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <f t="shared" si="8"/>
         <v>23.507608000000001</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <f t="shared" si="9"/>
         <v>99.697000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2017</v>
       </c>
       <c r="B10">
+        <v>2017</v>
+      </c>
+      <c r="C10">
         <f>COUNTIF([1]energy_communities!$J:$J, $A10)</f>
         <v>52</v>
       </c>
-      <c r="C10">
-        <f>M10-M9</f>
+      <c r="D10">
+        <f>N10-N9</f>
         <v>12000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f>COUNTIFS([1]community_projects!$H:$H, $A10, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>111</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A10, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>108</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A10, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>3</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>17.366669444444444</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A10,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>13.445669444444444</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A10,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>3.9209999999999998</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>63000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="4"/>
         <v>319</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <f t="shared" si="7"/>
         <v>140.57127744444446</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <f t="shared" si="8"/>
         <v>36.953277444444446</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <f t="shared" si="9"/>
         <v>103.61800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2018</v>
       </c>
       <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11">
         <f>COUNTIF([1]energy_communities!$J:$J, $A11)</f>
         <v>72</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:C16" si="10">M11-M10</f>
+      <c r="D11">
+        <f t="shared" ref="D11:D16" si="10">N11-N10</f>
         <v>5000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f>COUNTIFS([1]community_projects!$H:$H, $A11, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>191</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A11, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>183</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A11, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>8</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>82.48403555555555</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A11,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>36.694035555555558</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A11,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>45.79</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="3"/>
         <v>382</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>68000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <f t="shared" si="4"/>
         <v>510</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <f t="shared" si="5"/>
         <v>453</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <f t="shared" si="7"/>
         <v>223.05531300000001</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <f t="shared" si="8"/>
         <v>73.647312999999997</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <f t="shared" si="9"/>
         <v>149.40800000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2019</v>
       </c>
       <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12">
         <f>COUNTIF([1]energy_communities!$J:$J, $A12)</f>
         <v>66</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f t="shared" si="10"/>
         <v>19760</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f>COUNTIFS([1]community_projects!$H:$H, $A12, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>202</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A12, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>195</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A12, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>7</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>78.832400000000007</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A12,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>43.712400000000009</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A12,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>35.119999999999997</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="3"/>
         <v>448</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>87760</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" si="4"/>
         <v>712</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <f t="shared" si="5"/>
         <v>648</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <f t="shared" si="7"/>
         <v>301.88771300000002</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <f t="shared" si="8"/>
         <v>117.359713</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <f t="shared" si="9"/>
         <v>184.52800000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2020</v>
       </c>
       <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13">
         <f>COUNTIF([1]energy_communities!$J:$J, $A13)</f>
         <v>53</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f t="shared" si="10"/>
         <v>8571</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f>COUNTIFS([1]community_projects!$H:$H, $A13, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>177</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A13, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>171</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A13, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>6</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>90.752740000000003</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A13,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>53.632740000000005</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A13,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>37.119999999999997</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="3"/>
         <v>501</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>96331</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" si="4"/>
         <v>889</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <f t="shared" si="5"/>
         <v>819</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <f t="shared" si="7"/>
         <v>392.64045300000004</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <f t="shared" si="8"/>
         <v>170.99245300000001</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <f t="shared" si="9"/>
         <v>221.64800000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2021</v>
       </c>
       <c r="B14">
+        <v>2021</v>
+      </c>
+      <c r="C14">
         <f>COUNTIF([1]energy_communities!$J:$J, $A14)</f>
         <v>40</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f t="shared" si="10"/>
         <v>15145</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f>COUNTIFS([1]community_projects!$H:$H, $A14, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>129</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A14, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>114</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A14, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>15</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
         <v>131.90571636363637</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A14,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>43.542079999999999</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A14,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>88.363636363636374</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="3"/>
         <v>541</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>111476</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f t="shared" si="4"/>
         <v>1018</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <f t="shared" si="5"/>
         <v>933</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <f t="shared" si="7"/>
         <v>524.54616936363641</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <f t="shared" si="8"/>
         <v>214.53453300000001</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <f t="shared" si="9"/>
         <v>310.0116363636364</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2022</v>
       </c>
       <c r="B15">
+        <v>2022</v>
+      </c>
+      <c r="C15">
         <f>COUNTIF([1]energy_communities!$J:$J, $A15)</f>
         <v>23</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <f t="shared" si="10"/>
         <v>8738</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f>COUNTIFS([1]community_projects!$H:$H, $A15, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>180</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A15, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>175</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A15, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>5</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
         <v>81.356893820657262</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A15,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>61.73991259999999</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A15,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>19.616981220657276</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="3"/>
         <v>564</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>120214</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" si="4"/>
         <v>1198</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <f t="shared" si="5"/>
         <v>1108</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <f t="shared" si="7"/>
         <v>605.90306318429361</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <f t="shared" si="8"/>
         <v>276.27444559999998</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <f t="shared" si="9"/>
         <v>329.62861758429369</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2023</v>
       </c>
       <c r="B16">
+        <v>2023</v>
+      </c>
+      <c r="C16">
         <f>COUNTIF([1]energy_communities!$J:$J, $A16)</f>
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f t="shared" si="10"/>
         <v>10966</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f>COUNTIFS([1]community_projects!$H:$H, $A16, [1]community_projects!$G:$G, "gerealiseerd")</f>
         <v>151</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A16, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "PV")</f>
         <v>146</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f>COUNTIFS([1]EC_projects!$H:$H,$A16, [1]community_projects!$G:$G, "gerealiseerd", [1]community_projects!$I:$I, "wind")</f>
         <v>5</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <f t="shared" si="1"/>
         <v>64.763407000000001</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A16,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"PV") / 1000</f>
         <v>42.843407000000006</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <f>SUMIFS([1]community_projects!$P:$P,[1]community_projects!$H:$H, $A16,[1]community_projects!$G:$G,"gerealiseerd",[1]community_projects!$I:$I,"wind") / 1000</f>
         <v>21.92</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>131180</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <f t="shared" si="4"/>
         <v>1349</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <f t="shared" si="5"/>
         <v>1254</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <f t="shared" si="6"/>
         <v>95</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <f t="shared" si="7"/>
         <v>670.66647018429364</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <f t="shared" si="8"/>
         <v>319.11785259999999</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <f t="shared" si="9"/>
         <v>351.54861758429371</v>
       </c>
@@ -43553,1115 +43591,1275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F94C2C-27D9-49D2-80F1-03A3F1312A67}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>summary_statistics!A1</f>
         <v>year</v>
       </c>
       <c r="B1" t="str">
-        <f>summary_statistics!B1</f>
+        <f>summary_statistics!M1</f>
         <v>ECs</v>
       </c>
       <c r="C1" t="str">
-        <f>summary_statistics!C1</f>
+        <f>summary_statistics!N1</f>
         <v>EC Members</v>
       </c>
       <c r="D1" t="str">
-        <f>summary_statistics!D1</f>
+        <f>summary_statistics!O1</f>
         <v>Projects</v>
       </c>
       <c r="E1" t="str">
-        <f>summary_statistics!E1</f>
+        <f>summary_statistics!P1</f>
         <v>PV Projects</v>
       </c>
       <c r="F1" t="str">
-        <f>summary_statistics!F1</f>
+        <f>summary_statistics!Q1</f>
         <v>Wind Projects</v>
       </c>
       <c r="G1" t="str">
-        <f>summary_statistics!G1</f>
+        <f>summary_statistics!R1</f>
         <v>Installed cap (MW)</v>
       </c>
       <c r="H1" t="str">
-        <f>summary_statistics!H1</f>
+        <f>summary_statistics!S1</f>
         <v>PV Installed cap (MW)</v>
       </c>
       <c r="I1" t="str">
-        <f>summary_statistics!I1</f>
+        <f>summary_statistics!T1</f>
         <v>Wind Installed cap (MW)</v>
       </c>
-      <c r="L1" t="str">
-        <f>summary_statistics!L1</f>
-        <v>ECs</v>
-      </c>
-      <c r="M1" t="str">
-        <f>summary_statistics!M1</f>
-        <v>EC Members</v>
-      </c>
-      <c r="N1" t="str">
-        <f>summary_statistics!N1</f>
-        <v>Projects</v>
-      </c>
-      <c r="O1" t="str">
-        <f>summary_statistics!O1</f>
-        <v>PV Projects</v>
-      </c>
-      <c r="P1" t="str">
-        <f>summary_statistics!P1</f>
-        <v>Wind Projects</v>
-      </c>
-      <c r="Q1" t="str">
-        <f>summary_statistics!Q1</f>
-        <v>Installed cap (MW)</v>
-      </c>
-      <c r="R1" t="str">
-        <f>summary_statistics!R1</f>
-        <v>PV Installed cap (MW)</v>
-      </c>
-      <c r="S1" t="str">
-        <f>summary_statistics!S1</f>
-        <v>Wind Installed cap (MW)</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>2009</v>
+      </c>
+      <c r="B2" s="2">
+        <f>summary_statistics!M2*$L$5</f>
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <f>summary_statistics!N2*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>summary_statistics!O2*$L$5</f>
+        <v>20</v>
+      </c>
+      <c r="E2" s="2">
+        <f>summary_statistics!P2*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>summary_statistics!Q2*$L$5</f>
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <f>summary_statistics!R2*$L$5</f>
+        <v>31.271999999999998</v>
+      </c>
+      <c r="H2" s="2">
+        <f>summary_statistics!S2*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <f>summary_statistics!T2*$L$5</f>
+        <v>31.271999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
         <f>summary_statistics!A3</f>
         <v>2010</v>
       </c>
-      <c r="B2" s="2">
-        <f>summary_statistics!B3*$V$4</f>
-        <v>0.1746987951807229</v>
-      </c>
-      <c r="C2" s="2">
-        <f>summary_statistics!C3*$V$4</f>
+      <c r="B3" s="2">
+        <f>summary_statistics!M3*$L$5</f>
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
+        <f>summary_statistics!N3*$L$5</f>
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <f>summary_statistics!D3*$V$4</f>
-        <v>3.4939759036144581E-2</v>
-      </c>
-      <c r="E2" s="2">
-        <f>summary_statistics!E3*$V$4</f>
+      <c r="D3" s="2">
+        <f>summary_statistics!O3*$L$5</f>
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <f>summary_statistics!P3*$L$5</f>
         <v>0</v>
       </c>
-      <c r="F2" s="2">
-        <f>summary_statistics!F3*$V$4</f>
-        <v>3.4939759036144581E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <f>summary_statistics!G3*$V$4</f>
-        <v>0.16072289156626507</v>
-      </c>
-      <c r="H2" s="2">
-        <f>summary_statistics!H3*$V$4</f>
+      <c r="F3" s="2">
+        <f>summary_statistics!Q3*$L$5</f>
+        <v>21</v>
+      </c>
+      <c r="G3" s="2">
+        <f>summary_statistics!R3*$L$5</f>
+        <v>35.872</v>
+      </c>
+      <c r="H3" s="2">
+        <f>summary_statistics!S3*$L$5</f>
         <v>0</v>
       </c>
-      <c r="I2" s="2">
-        <f>summary_statistics!I3*$V$4</f>
-        <v>0.16072289156626507</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
-        <f>summary_statistics!L3*$V$4</f>
-        <v>0.7686746987951808</v>
-      </c>
-      <c r="M2" s="2">
-        <f>summary_statistics!M3*$V$4</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <f>summary_statistics!N3*$V$4</f>
-        <v>0.73373493975903625</v>
-      </c>
-      <c r="O2" s="2">
-        <f>summary_statistics!O3*$V$4</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <f>summary_statistics!P3*$V$4</f>
-        <v>0.73373493975903625</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>summary_statistics!Q3*$V$4</f>
-        <v>1.2533590361445783</v>
-      </c>
-      <c r="R2" s="2">
-        <f>summary_statistics!R3*$V$4</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <f>summary_statistics!S3*$V$4</f>
-        <v>1.2533590361445783</v>
-      </c>
-      <c r="V2">
-        <v>290000</v>
-      </c>
-      <c r="W2" t="s">
-        <v>10</v>
+      <c r="I3" s="2">
+        <f>summary_statistics!T3*$L$5</f>
+        <v>35.872</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
         <f>summary_statistics!A4</f>
         <v>2011</v>
       </c>
-      <c r="B3" s="2">
-        <f>summary_statistics!B4*$V$4</f>
-        <v>0.3493975903614458</v>
-      </c>
-      <c r="C3" s="2">
-        <f>summary_statistics!C4*$V$4</f>
+      <c r="B4" s="2">
+        <f>summary_statistics!M4*$L$5</f>
+        <v>32</v>
+      </c>
+      <c r="C4" s="2">
+        <f>summary_statistics!N4*$L$5</f>
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <f>summary_statistics!D4*$V$4</f>
-        <v>6.9879518072289162E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <f>summary_statistics!E4*$V$4</f>
-        <v>6.9879518072289162E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <f>summary_statistics!F4*$V$4</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <f>summary_statistics!G4*$V$4</f>
-        <v>1.0419036144578315E-3</v>
-      </c>
-      <c r="H3" s="2">
-        <f>summary_statistics!H4*$V$4</f>
-        <v>1.0419036144578315E-3</v>
-      </c>
-      <c r="I3" s="2">
-        <f>summary_statistics!I4*$V$4</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <f>summary_statistics!L4*$V$4</f>
-        <v>1.1180722891566266</v>
-      </c>
-      <c r="M3" s="2">
-        <f>summary_statistics!M4*$V$4</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <f>summary_statistics!N4*$V$4</f>
-        <v>0.80361445783132535</v>
-      </c>
-      <c r="O3" s="2">
-        <f>summary_statistics!O4*$V$4</f>
-        <v>6.9879518072289162E-2</v>
-      </c>
-      <c r="P3" s="2">
-        <f>summary_statistics!P4*$V$4</f>
-        <v>0.73373493975903625</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>summary_statistics!Q4*$V$4</f>
-        <v>1.2544009397590363</v>
-      </c>
-      <c r="R3" s="2">
-        <f>summary_statistics!R4*$V$4</f>
-        <v>1.0419036144578315E-3</v>
-      </c>
-      <c r="S3" s="2">
-        <f>summary_statistics!S4*$V$4</f>
-        <v>1.2533590361445783</v>
-      </c>
-      <c r="V3">
-        <v>8300000</v>
-      </c>
-      <c r="W3" t="s">
-        <v>11</v>
+      <c r="D4" s="2">
+        <f>summary_statistics!O4*$L$5</f>
+        <v>23</v>
+      </c>
+      <c r="E4" s="2">
+        <f>summary_statistics!P4*$L$5</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <f>summary_statistics!Q4*$L$5</f>
+        <v>21</v>
+      </c>
+      <c r="G4" s="2">
+        <f>summary_statistics!R4*$L$5</f>
+        <v>35.901820000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <f>summary_statistics!S4*$L$5</f>
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <f>summary_statistics!T4*$L$5</f>
+        <v>35.872</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
         <f>summary_statistics!A5</f>
         <v>2012</v>
       </c>
-      <c r="B4" s="2">
-        <f>summary_statistics!B5*$V$4</f>
-        <v>0.80361445783132535</v>
-      </c>
-      <c r="C4" s="2">
-        <f>summary_statistics!C5*$V$4</f>
+      <c r="B5" s="2">
+        <f>summary_statistics!M5*$L$5</f>
+        <v>55</v>
+      </c>
+      <c r="C5" s="2">
+        <f>summary_statistics!N5*$L$5</f>
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <f>summary_statistics!D5*$V$4</f>
-        <v>0.31445783132530125</v>
-      </c>
-      <c r="E4" s="2">
-        <f>summary_statistics!E5*$V$4</f>
-        <v>0.2096385542168675</v>
-      </c>
-      <c r="F4" s="2">
-        <f>summary_statistics!F5*$V$4</f>
-        <v>0.10481927710843375</v>
-      </c>
-      <c r="G4" s="2">
-        <f>summary_statistics!G5*$V$4</f>
-        <v>0.23152370120481927</v>
-      </c>
-      <c r="H4" s="2">
-        <f>summary_statistics!H5*$V$4</f>
-        <v>4.4595990361445785E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <f>summary_statistics!I5*$V$4</f>
-        <v>0.18692771084337351</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <f>summary_statistics!L5*$V$4</f>
-        <v>1.9216867469879519</v>
-      </c>
-      <c r="M4" s="2">
-        <f>summary_statistics!M5*$V$4</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <f>summary_statistics!N5*$V$4</f>
-        <v>1.1180722891566266</v>
-      </c>
-      <c r="O4" s="2">
-        <f>summary_statistics!O5*$V$4</f>
-        <v>0.27951807228915665</v>
-      </c>
-      <c r="P4" s="2">
-        <f>summary_statistics!P5*$V$4</f>
-        <v>0.83855421686747</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>summary_statistics!Q5*$V$4</f>
-        <v>1.4859246409638556</v>
-      </c>
-      <c r="R4" s="2">
-        <f>summary_statistics!R5*$V$4</f>
-        <v>4.5637893975903614E-2</v>
-      </c>
-      <c r="S4" s="2">
-        <f>summary_statistics!S5*$V$4</f>
-        <v>1.4402867469879519</v>
-      </c>
-      <c r="V4">
-        <f>V2/V3</f>
-        <v>3.4939759036144581E-2</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="D5" s="2">
+        <f>summary_statistics!O5*$L$5</f>
+        <v>32</v>
+      </c>
+      <c r="E5" s="2">
+        <f>summary_statistics!P5*$L$5</f>
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <f>summary_statistics!Q5*$L$5</f>
+        <v>24</v>
+      </c>
+      <c r="G5" s="2">
+        <f>summary_statistics!R5*$L$5</f>
+        <v>42.528188</v>
+      </c>
+      <c r="H5" s="2">
+        <f>summary_statistics!S5*$L$5</f>
+        <v>1.3061879999999999</v>
+      </c>
+      <c r="I5" s="2">
+        <f>summary_statistics!T5*$L$5</f>
+        <v>41.222000000000001</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
         <f>summary_statistics!A6</f>
         <v>2013</v>
       </c>
-      <c r="B5" s="2">
-        <f>summary_statistics!B6*$V$4</f>
-        <v>1.8518072289156629</v>
-      </c>
-      <c r="C5" s="2">
-        <f>summary_statistics!C6*$V$4</f>
+      <c r="B6" s="2">
+        <f>summary_statistics!M6*$L$5</f>
+        <v>108</v>
+      </c>
+      <c r="C6" s="2">
+        <f>summary_statistics!N6*$L$5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <f>summary_statistics!D6*$V$4</f>
-        <v>0.6987951807228916</v>
-      </c>
-      <c r="E5" s="2">
-        <f>summary_statistics!E6*$V$4</f>
-        <v>0.419277108433735</v>
-      </c>
-      <c r="F5" s="2">
-        <f>summary_statistics!F6*$V$4</f>
-        <v>0.27951807228915665</v>
-      </c>
-      <c r="G5" s="2">
-        <f>summary_statistics!G6*$V$4</f>
-        <v>0.47404657831325309</v>
-      </c>
-      <c r="H5" s="2">
-        <f>summary_statistics!H6*$V$4</f>
-        <v>1.4588746987951807E-2</v>
-      </c>
-      <c r="I5" s="2">
-        <f>summary_statistics!I6*$V$4</f>
-        <v>0.45945783132530127</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
-        <f>summary_statistics!L6*$V$4</f>
-        <v>3.7734939759036146</v>
-      </c>
-      <c r="M5" s="2">
-        <f>summary_statistics!M6*$V$4</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <f>summary_statistics!N6*$V$4</f>
-        <v>1.8168674698795182</v>
-      </c>
-      <c r="O5" s="2">
-        <f>summary_statistics!O6*$V$4</f>
-        <v>0.6987951807228916</v>
-      </c>
-      <c r="P5" s="2">
-        <f>summary_statistics!P6*$V$4</f>
-        <v>1.1180722891566266</v>
-      </c>
-      <c r="Q5" s="2">
-        <f>summary_statistics!Q6*$V$4</f>
-        <v>1.9599712192771086</v>
-      </c>
-      <c r="R5" s="2">
-        <f>summary_statistics!R6*$V$4</f>
-        <v>6.0226640963855424E-2</v>
-      </c>
-      <c r="S5" s="2">
-        <f>summary_statistics!S6*$V$4</f>
-        <v>1.8997445783132532</v>
+      <c r="D6" s="2">
+        <f>summary_statistics!O6*$L$5</f>
+        <v>52</v>
+      </c>
+      <c r="E6" s="2">
+        <f>summary_statistics!P6*$L$5</f>
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <f>summary_statistics!Q6*$L$5</f>
+        <v>32</v>
+      </c>
+      <c r="G6" s="2">
+        <f>summary_statistics!R6*$L$5</f>
+        <v>56.095728000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <f>summary_statistics!S6*$L$5</f>
+        <v>1.7237279999999999</v>
+      </c>
+      <c r="I6" s="2">
+        <f>summary_statistics!T6*$L$5</f>
+        <v>54.372</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
         <f>summary_statistics!A7</f>
         <v>2014</v>
       </c>
-      <c r="B6" s="2">
-        <f>summary_statistics!B7*$V$4</f>
-        <v>1.6421686746987953</v>
-      </c>
-      <c r="C6" s="2">
-        <f>summary_statistics!C7*$V$4</f>
+      <c r="B7" s="2">
+        <f>summary_statistics!M7*$L$5</f>
+        <v>155</v>
+      </c>
+      <c r="C7" s="2">
+        <f>summary_statistics!N7*$L$5</f>
         <v>0</v>
       </c>
-      <c r="D6" s="2">
-        <f>summary_statistics!D7*$V$4</f>
-        <v>0.9783132530120483</v>
-      </c>
-      <c r="E6" s="2">
-        <f>summary_statistics!E7*$V$4</f>
-        <v>0.9084337349397591</v>
-      </c>
-      <c r="F6" s="2">
-        <f>summary_statistics!F7*$V$4</f>
-        <v>6.9879518072289162E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <f>summary_statistics!G7*$V$4</f>
-        <v>7.7231018072289173E-2</v>
-      </c>
-      <c r="H6" s="2">
-        <f>summary_statistics!H7*$V$4</f>
-        <v>4.7532222891566278E-2</v>
-      </c>
-      <c r="I6" s="2">
-        <f>summary_statistics!I7*$V$4</f>
-        <v>2.9698795180722892E-2</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
-        <f>summary_statistics!L7*$V$4</f>
-        <v>5.4156626506024104</v>
-      </c>
-      <c r="M6" s="2">
-        <f>summary_statistics!M7*$V$4</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <f>summary_statistics!N7*$V$4</f>
-        <v>2.7951807228915664</v>
-      </c>
-      <c r="O6" s="2">
-        <f>summary_statistics!O7*$V$4</f>
-        <v>1.6072289156626507</v>
-      </c>
-      <c r="P6" s="2">
-        <f>summary_statistics!P7*$V$4</f>
-        <v>1.1879518072289157</v>
-      </c>
-      <c r="Q6" s="2">
-        <f>summary_statistics!Q7*$V$4</f>
-        <v>2.0372022373493976</v>
-      </c>
-      <c r="R6" s="2">
-        <f>summary_statistics!R7*$V$4</f>
-        <v>0.10775886385542172</v>
-      </c>
-      <c r="S6" s="2">
-        <f>summary_statistics!S7*$V$4</f>
-        <v>1.9294433734939762</v>
+      <c r="D7" s="2">
+        <f>summary_statistics!O7*$L$5</f>
+        <v>80</v>
+      </c>
+      <c r="E7" s="2">
+        <f>summary_statistics!P7*$L$5</f>
+        <v>46</v>
+      </c>
+      <c r="F7" s="2">
+        <f>summary_statistics!Q7*$L$5</f>
+        <v>34</v>
+      </c>
+      <c r="G7" s="2">
+        <f>summary_statistics!R7*$L$5</f>
+        <v>58.306133000000003</v>
+      </c>
+      <c r="H7" s="2">
+        <f>summary_statistics!S7*$L$5</f>
+        <v>3.0841330000000005</v>
+      </c>
+      <c r="I7" s="2">
+        <f>summary_statistics!T7*$L$5</f>
+        <v>55.222000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
         <f>summary_statistics!A8</f>
         <v>2015</v>
       </c>
-      <c r="B7" s="2">
-        <f>summary_statistics!B8*$V$4</f>
-        <v>1.7819277108433735</v>
-      </c>
-      <c r="C7" s="2">
-        <f>summary_statistics!C8*$V$4</f>
+      <c r="B8" s="2">
+        <f>summary_statistics!M8*$L$5</f>
+        <v>206</v>
+      </c>
+      <c r="C8" s="2">
+        <f>summary_statistics!N8*$L$5</f>
         <v>0</v>
       </c>
-      <c r="D7" s="2">
-        <f>summary_statistics!D8*$V$4</f>
-        <v>1.8867469879518073</v>
-      </c>
-      <c r="E7" s="2">
-        <f>summary_statistics!E8*$V$4</f>
-        <v>1.7819277108433735</v>
-      </c>
-      <c r="F7" s="2">
-        <f>summary_statistics!F8*$V$4</f>
-        <v>0.10481927710843375</v>
-      </c>
-      <c r="G7" s="2">
-        <f>summary_statistics!G8*$V$4</f>
-        <v>0.34610678915662657</v>
-      </c>
-      <c r="H7" s="2">
-        <f>summary_statistics!H8*$V$4</f>
-        <v>0.1390887168674699</v>
-      </c>
-      <c r="I7" s="2">
-        <f>summary_statistics!I8*$V$4</f>
-        <v>0.20701807228915664</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
-        <f>summary_statistics!L8*$V$4</f>
-        <v>7.1975903614457835</v>
-      </c>
-      <c r="M7" s="2">
-        <f>summary_statistics!M8*$V$4</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <f>summary_statistics!N8*$V$4</f>
-        <v>4.6819277108433734</v>
-      </c>
-      <c r="O7" s="2">
-        <f>summary_statistics!O8*$V$4</f>
-        <v>3.3891566265060242</v>
-      </c>
-      <c r="P7" s="2">
-        <f>summary_statistics!P8*$V$4</f>
-        <v>1.2927710843373494</v>
-      </c>
-      <c r="Q7" s="2">
-        <f>summary_statistics!Q8*$V$4</f>
-        <v>2.3833090265060246</v>
-      </c>
-      <c r="R7" s="2">
-        <f>summary_statistics!R8*$V$4</f>
-        <v>0.24684758072289162</v>
-      </c>
-      <c r="S7" s="2">
-        <f>summary_statistics!S8*$V$4</f>
-        <v>2.1364614457831328</v>
+      <c r="D8" s="2">
+        <f>summary_statistics!O8*$L$5</f>
+        <v>134</v>
+      </c>
+      <c r="E8" s="2">
+        <f>summary_statistics!P8*$L$5</f>
+        <v>97</v>
+      </c>
+      <c r="F8" s="2">
+        <f>summary_statistics!Q8*$L$5</f>
+        <v>37</v>
+      </c>
+      <c r="G8" s="2">
+        <f>summary_statistics!R8*$L$5</f>
+        <v>68.211948000000007</v>
+      </c>
+      <c r="H8" s="2">
+        <f>summary_statistics!S8*$L$5</f>
+        <v>7.0649480000000011</v>
+      </c>
+      <c r="I8" s="2">
+        <f>summary_statistics!T8*$L$5</f>
+        <v>61.146999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
         <f>summary_statistics!A9</f>
         <v>2016</v>
       </c>
-      <c r="B8" s="2">
-        <f>summary_statistics!B9*$V$4</f>
-        <v>1.8168674698795182</v>
-      </c>
-      <c r="C8" s="2">
-        <f>summary_statistics!C9*$V$4</f>
-        <v>1781.9277108433737</v>
-      </c>
-      <c r="D8" s="2">
-        <f>summary_statistics!D9*$V$4</f>
-        <v>2.5855421686746989</v>
-      </c>
-      <c r="E8" s="2">
-        <f>summary_statistics!E9*$V$4</f>
-        <v>2.2710843373493979</v>
-      </c>
-      <c r="F8" s="2">
-        <f>summary_statistics!F9*$V$4</f>
-        <v>0.31445783132530125</v>
-      </c>
-      <c r="G8" s="2">
-        <f>summary_statistics!G9*$V$4</f>
-        <v>1.9214302891566266</v>
-      </c>
-      <c r="H8" s="2">
-        <f>summary_statistics!H9*$V$4</f>
-        <v>0.57450257831325302</v>
-      </c>
-      <c r="I8" s="2">
-        <f>summary_statistics!I9*$V$4</f>
-        <v>1.3469277108433735</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2">
-        <f>summary_statistics!L9*$V$4</f>
-        <v>9.0144578313253021</v>
-      </c>
-      <c r="M8" s="2">
-        <f>summary_statistics!M9*$V$4</f>
-        <v>1781.9277108433737</v>
-      </c>
-      <c r="N8" s="2">
-        <f>summary_statistics!N9*$V$4</f>
-        <v>7.2674698795180728</v>
-      </c>
-      <c r="O8" s="2">
-        <f>summary_statistics!O9*$V$4</f>
-        <v>5.6602409638554221</v>
-      </c>
-      <c r="P8" s="2">
-        <f>summary_statistics!P9*$V$4</f>
-        <v>1.6072289156626507</v>
-      </c>
-      <c r="Q8" s="2">
-        <f>summary_statistics!Q9*$V$4</f>
-        <v>4.3047393156626512</v>
-      </c>
-      <c r="R8" s="2">
-        <f>summary_statistics!R9*$V$4</f>
-        <v>0.82135015903614472</v>
-      </c>
-      <c r="S8" s="2">
-        <f>summary_statistics!S9*$V$4</f>
-        <v>3.4833891566265063</v>
+      <c r="B9" s="2">
+        <f>summary_statistics!M9*$L$5</f>
+        <v>258</v>
+      </c>
+      <c r="C9" s="2">
+        <f>summary_statistics!N9*$L$5</f>
+        <v>51000</v>
+      </c>
+      <c r="D9" s="2">
+        <f>summary_statistics!O9*$L$5</f>
+        <v>208</v>
+      </c>
+      <c r="E9" s="2">
+        <f>summary_statistics!P9*$L$5</f>
+        <v>162</v>
+      </c>
+      <c r="F9" s="2">
+        <f>summary_statistics!Q9*$L$5</f>
+        <v>46</v>
+      </c>
+      <c r="G9" s="2">
+        <f>summary_statistics!R9*$L$5</f>
+        <v>123.20460800000001</v>
+      </c>
+      <c r="H9" s="2">
+        <f>summary_statistics!S9*$L$5</f>
+        <v>23.507608000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <f>summary_statistics!T9*$L$5</f>
+        <v>99.697000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
         <f>summary_statistics!A10</f>
         <v>2017</v>
       </c>
-      <c r="B9" s="2">
-        <f>summary_statistics!B10*$V$4</f>
-        <v>1.8168674698795182</v>
-      </c>
-      <c r="C9" s="2">
-        <f>summary_statistics!C10*$V$4</f>
-        <v>419.27710843373495</v>
-      </c>
-      <c r="D9" s="2">
-        <f>summary_statistics!D10*$V$4</f>
-        <v>3.8783132530120485</v>
-      </c>
-      <c r="E9" s="2">
-        <f>summary_statistics!E10*$V$4</f>
-        <v>3.7734939759036146</v>
-      </c>
-      <c r="F9" s="2">
-        <f>summary_statistics!F10*$V$4</f>
-        <v>0.10481927710843375</v>
-      </c>
-      <c r="G9" s="2">
-        <f>summary_statistics!G10*$V$4</f>
-        <v>0.60678724564926378</v>
-      </c>
-      <c r="H9" s="2">
-        <f>summary_statistics!H10*$V$4</f>
-        <v>0.46978845046854084</v>
-      </c>
-      <c r="I9" s="2">
-        <f>summary_statistics!I10*$V$4</f>
-        <v>0.13699879518072289</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2">
-        <f>summary_statistics!L10*$V$4</f>
-        <v>10.831325301204821</v>
-      </c>
-      <c r="M9" s="2">
-        <f>summary_statistics!M10*$V$4</f>
-        <v>2201.2048192771085</v>
-      </c>
-      <c r="N9" s="2">
-        <f>summary_statistics!N10*$V$4</f>
-        <v>11.145783132530122</v>
-      </c>
-      <c r="O9" s="2">
-        <f>summary_statistics!O10*$V$4</f>
-        <v>9.4337349397590362</v>
-      </c>
-      <c r="P9" s="2">
-        <f>summary_statistics!P10*$V$4</f>
-        <v>1.7120481927710844</v>
-      </c>
-      <c r="Q9" s="2">
-        <f>summary_statistics!Q10*$V$4</f>
-        <v>4.9115265613119155</v>
-      </c>
-      <c r="R9" s="2">
-        <f>summary_statistics!R10*$V$4</f>
-        <v>1.2911386095046855</v>
-      </c>
-      <c r="S9" s="2">
-        <f>summary_statistics!S10*$V$4</f>
-        <v>3.6203879518072295</v>
+      <c r="B10" s="2">
+        <f>summary_statistics!M10*$L$5</f>
+        <v>310</v>
+      </c>
+      <c r="C10" s="2">
+        <f>summary_statistics!N10*$L$5</f>
+        <v>63000</v>
+      </c>
+      <c r="D10" s="2">
+        <f>summary_statistics!O10*$L$5</f>
+        <v>319</v>
+      </c>
+      <c r="E10" s="2">
+        <f>summary_statistics!P10*$L$5</f>
+        <v>270</v>
+      </c>
+      <c r="F10" s="2">
+        <f>summary_statistics!Q10*$L$5</f>
+        <v>49</v>
+      </c>
+      <c r="G10" s="2">
+        <f>summary_statistics!R10*$L$5</f>
+        <v>140.57127744444446</v>
+      </c>
+      <c r="H10" s="2">
+        <f>summary_statistics!S10*$L$5</f>
+        <v>36.953277444444446</v>
+      </c>
+      <c r="I10" s="2">
+        <f>summary_statistics!T10*$L$5</f>
+        <v>103.61800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
         <f>summary_statistics!A11</f>
         <v>2018</v>
       </c>
-      <c r="B10" s="2">
-        <f>summary_statistics!B11*$V$4</f>
-        <v>2.51566265060241</v>
-      </c>
-      <c r="C10" s="2">
-        <f>summary_statistics!C11*$V$4</f>
-        <v>174.6987951807229</v>
-      </c>
-      <c r="D10" s="2">
-        <f>summary_statistics!D11*$V$4</f>
-        <v>6.6734939759036154</v>
-      </c>
-      <c r="E10" s="2">
-        <f>summary_statistics!E11*$V$4</f>
-        <v>6.3939759036144581</v>
-      </c>
-      <c r="F10" s="2">
-        <f>summary_statistics!F11*$V$4</f>
-        <v>0.27951807228915665</v>
-      </c>
-      <c r="G10" s="2">
-        <f>summary_statistics!G11*$V$4</f>
-        <v>2.8819723266398931</v>
-      </c>
-      <c r="H10" s="2">
-        <f>summary_statistics!H11*$V$4</f>
-        <v>1.2820807603748328</v>
-      </c>
-      <c r="I10" s="2">
-        <f>summary_statistics!I11*$V$4</f>
-        <v>1.5998915662650603</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2">
-        <f>summary_statistics!L11*$V$4</f>
-        <v>13.346987951807231</v>
-      </c>
-      <c r="M10" s="2">
-        <f>summary_statistics!M11*$V$4</f>
-        <v>2375.9036144578317</v>
-      </c>
-      <c r="N10" s="2">
-        <f>summary_statistics!N11*$V$4</f>
-        <v>17.819277108433738</v>
-      </c>
-      <c r="O10" s="2">
-        <f>summary_statistics!O11*$V$4</f>
-        <v>15.827710843373495</v>
-      </c>
-      <c r="P10" s="2">
-        <f>summary_statistics!P11*$V$4</f>
-        <v>1.991566265060241</v>
-      </c>
-      <c r="Q10" s="2">
-        <f>summary_statistics!Q11*$V$4</f>
-        <v>7.7934988879518086</v>
-      </c>
-      <c r="R10" s="2">
-        <f>summary_statistics!R11*$V$4</f>
-        <v>2.573219369879518</v>
-      </c>
-      <c r="S10" s="2">
-        <f>summary_statistics!S11*$V$4</f>
-        <v>5.2202795180722905</v>
+      <c r="B11" s="2">
+        <f>summary_statistics!M11*$L$5</f>
+        <v>382</v>
+      </c>
+      <c r="C11" s="2">
+        <f>summary_statistics!N11*$L$5</f>
+        <v>68000</v>
+      </c>
+      <c r="D11" s="2">
+        <f>summary_statistics!O11*$L$5</f>
+        <v>510</v>
+      </c>
+      <c r="E11" s="2">
+        <f>summary_statistics!P11*$L$5</f>
+        <v>453</v>
+      </c>
+      <c r="F11" s="2">
+        <f>summary_statistics!Q11*$L$5</f>
+        <v>57</v>
+      </c>
+      <c r="G11" s="2">
+        <f>summary_statistics!R11*$L$5</f>
+        <v>223.05531300000001</v>
+      </c>
+      <c r="H11" s="2">
+        <f>summary_statistics!S11*$L$5</f>
+        <v>73.647312999999997</v>
+      </c>
+      <c r="I11" s="2">
+        <f>summary_statistics!T11*$L$5</f>
+        <v>149.40800000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
         <f>summary_statistics!A12</f>
         <v>2019</v>
       </c>
-      <c r="B11" s="2">
-        <f>summary_statistics!B12*$V$4</f>
-        <v>2.3060240963855425</v>
-      </c>
-      <c r="C11" s="2">
-        <f>summary_statistics!C12*$V$4</f>
-        <v>690.40963855421694</v>
-      </c>
-      <c r="D11" s="2">
-        <f>summary_statistics!D12*$V$4</f>
-        <v>7.0578313253012057</v>
-      </c>
-      <c r="E11" s="2">
-        <f>summary_statistics!E12*$V$4</f>
-        <v>6.8132530120481931</v>
-      </c>
-      <c r="F11" s="2">
-        <f>summary_statistics!F12*$V$4</f>
-        <v>0.24457831325301208</v>
-      </c>
-      <c r="G11" s="2">
-        <f>summary_statistics!G12*$V$4</f>
-        <v>2.7543850602409643</v>
-      </c>
-      <c r="H11" s="2">
-        <f>summary_statistics!H12*$V$4</f>
-        <v>1.5273007228915667</v>
-      </c>
-      <c r="I11" s="2">
-        <f>summary_statistics!I12*$V$4</f>
-        <v>1.2270843373493976</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2">
-        <f>summary_statistics!L12*$V$4</f>
-        <v>15.653012048192773</v>
-      </c>
-      <c r="M11" s="2">
-        <f>summary_statistics!M12*$V$4</f>
-        <v>3066.3132530120483</v>
-      </c>
-      <c r="N11" s="2">
-        <f>summary_statistics!N12*$V$4</f>
-        <v>24.877108433734943</v>
-      </c>
-      <c r="O11" s="2">
-        <f>summary_statistics!O12*$V$4</f>
-        <v>22.640963855421688</v>
-      </c>
-      <c r="P11" s="2">
-        <f>summary_statistics!P12*$V$4</f>
-        <v>2.2361445783132532</v>
-      </c>
-      <c r="Q11" s="2">
-        <f>summary_statistics!Q12*$V$4</f>
-        <v>10.547883948192773</v>
-      </c>
-      <c r="R11" s="2">
-        <f>summary_statistics!R12*$V$4</f>
-        <v>4.1005200927710845</v>
-      </c>
-      <c r="S11" s="2">
-        <f>summary_statistics!S12*$V$4</f>
-        <v>6.4473638554216883</v>
+      <c r="B12" s="2">
+        <f>summary_statistics!M12*$L$5</f>
+        <v>448</v>
+      </c>
+      <c r="C12" s="2">
+        <f>summary_statistics!N12*$L$5</f>
+        <v>87760</v>
+      </c>
+      <c r="D12" s="2">
+        <f>summary_statistics!O12*$L$5</f>
+        <v>712</v>
+      </c>
+      <c r="E12" s="2">
+        <f>summary_statistics!P12*$L$5</f>
+        <v>648</v>
+      </c>
+      <c r="F12" s="2">
+        <f>summary_statistics!Q12*$L$5</f>
+        <v>64</v>
+      </c>
+      <c r="G12" s="2">
+        <f>summary_statistics!R12*$L$5</f>
+        <v>301.88771300000002</v>
+      </c>
+      <c r="H12" s="2">
+        <f>summary_statistics!S12*$L$5</f>
+        <v>117.359713</v>
+      </c>
+      <c r="I12" s="2">
+        <f>summary_statistics!T12*$L$5</f>
+        <v>184.52800000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
         <f>summary_statistics!A13</f>
         <v>2020</v>
       </c>
-      <c r="B12" s="2">
-        <f>summary_statistics!B13*$V$4</f>
-        <v>1.8518072289156629</v>
-      </c>
-      <c r="C12" s="2">
-        <f>summary_statistics!C13*$V$4</f>
-        <v>299.46867469879521</v>
-      </c>
-      <c r="D12" s="2">
-        <f>summary_statistics!D13*$V$4</f>
-        <v>6.1843373493975911</v>
-      </c>
-      <c r="E12" s="2">
-        <f>summary_statistics!E13*$V$4</f>
-        <v>5.9746987951807231</v>
-      </c>
-      <c r="F12" s="2">
-        <f>summary_statistics!F13*$V$4</f>
-        <v>0.2096385542168675</v>
-      </c>
-      <c r="G12" s="2">
-        <f>summary_statistics!G13*$V$4</f>
-        <v>3.17087886746988</v>
-      </c>
-      <c r="H12" s="2">
-        <f>summary_statistics!H13*$V$4</f>
-        <v>1.8739150120481931</v>
-      </c>
-      <c r="I12" s="2">
-        <f>summary_statistics!I13*$V$4</f>
-        <v>1.2969638554216867</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <f>summary_statistics!L13*$V$4</f>
-        <v>17.504819277108435</v>
-      </c>
-      <c r="M12" s="2">
-        <f>summary_statistics!M13*$V$4</f>
-        <v>3365.7819277108438</v>
-      </c>
-      <c r="N12" s="2">
-        <f>summary_statistics!N13*$V$4</f>
-        <v>31.061445783132534</v>
-      </c>
-      <c r="O12" s="2">
-        <f>summary_statistics!O13*$V$4</f>
-        <v>28.615662650602413</v>
-      </c>
-      <c r="P12" s="2">
-        <f>summary_statistics!P13*$V$4</f>
-        <v>2.4457831325301207</v>
-      </c>
-      <c r="Q12" s="2">
-        <f>summary_statistics!Q13*$V$4</f>
-        <v>13.718762815662654</v>
-      </c>
-      <c r="R12" s="2">
-        <f>summary_statistics!R13*$V$4</f>
-        <v>5.9744351048192783</v>
-      </c>
-      <c r="S12" s="2">
-        <f>summary_statistics!S13*$V$4</f>
-        <v>7.7443277108433746</v>
+      <c r="B13" s="2">
+        <f>summary_statistics!M13*$L$5</f>
+        <v>501</v>
+      </c>
+      <c r="C13" s="2">
+        <f>summary_statistics!N13*$L$5</f>
+        <v>96331</v>
+      </c>
+      <c r="D13" s="2">
+        <f>summary_statistics!O13*$L$5</f>
+        <v>889</v>
+      </c>
+      <c r="E13" s="2">
+        <f>summary_statistics!P13*$L$5</f>
+        <v>819</v>
+      </c>
+      <c r="F13" s="2">
+        <f>summary_statistics!Q13*$L$5</f>
+        <v>70</v>
+      </c>
+      <c r="G13" s="2">
+        <f>summary_statistics!R13*$L$5</f>
+        <v>392.64045300000004</v>
+      </c>
+      <c r="H13" s="2">
+        <f>summary_statistics!S13*$L$5</f>
+        <v>170.99245300000001</v>
+      </c>
+      <c r="I13" s="2">
+        <f>summary_statistics!T13*$L$5</f>
+        <v>221.64800000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
         <f>summary_statistics!A14</f>
         <v>2021</v>
       </c>
-      <c r="B13" s="2">
-        <f>summary_statistics!B14*$V$4</f>
-        <v>1.3975903614457832</v>
-      </c>
-      <c r="C13" s="2">
-        <f>summary_statistics!C14*$V$4</f>
-        <v>529.16265060240971</v>
-      </c>
-      <c r="D13" s="2">
-        <f>summary_statistics!D14*$V$4</f>
-        <v>4.507228915662651</v>
-      </c>
-      <c r="E13" s="2">
-        <f>summary_statistics!E14*$V$4</f>
-        <v>3.9831325301204821</v>
-      </c>
-      <c r="F13" s="2">
-        <f>summary_statistics!F14*$V$4</f>
-        <v>0.52409638554216875</v>
-      </c>
-      <c r="G13" s="2">
-        <f>summary_statistics!G14*$V$4</f>
-        <v>4.6087539452354882</v>
-      </c>
-      <c r="H13" s="2">
-        <f>summary_statistics!H14*$V$4</f>
-        <v>1.5213497831325302</v>
-      </c>
-      <c r="I13" s="2">
-        <f>summary_statistics!I14*$V$4</f>
-        <v>3.087404162102958</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <f>summary_statistics!L14*$V$4</f>
-        <v>18.902409638554218</v>
-      </c>
-      <c r="M13" s="2">
-        <f>summary_statistics!M14*$V$4</f>
-        <v>3894.9445783132533</v>
-      </c>
-      <c r="N13" s="2">
-        <f>summary_statistics!N14*$V$4</f>
-        <v>35.568674698795185</v>
-      </c>
-      <c r="O13" s="2">
-        <f>summary_statistics!O14*$V$4</f>
-        <v>32.598795180722895</v>
-      </c>
-      <c r="P13" s="2">
-        <f>summary_statistics!P14*$V$4</f>
-        <v>2.9698795180722892</v>
-      </c>
-      <c r="Q13" s="2">
-        <f>summary_statistics!Q14*$V$4</f>
-        <v>18.327516760898142</v>
-      </c>
-      <c r="R13" s="2">
-        <f>summary_statistics!R14*$V$4</f>
-        <v>7.4957848879518085</v>
-      </c>
-      <c r="S13" s="2">
-        <f>summary_statistics!S14*$V$4</f>
-        <v>10.831731872946333</v>
+      <c r="B14" s="2">
+        <f>summary_statistics!M14*$L$5</f>
+        <v>541</v>
+      </c>
+      <c r="C14" s="2">
+        <f>summary_statistics!N14*$L$5</f>
+        <v>111476</v>
+      </c>
+      <c r="D14" s="2">
+        <f>summary_statistics!O14*$L$5</f>
+        <v>1018</v>
+      </c>
+      <c r="E14" s="2">
+        <f>summary_statistics!P14*$L$5</f>
+        <v>933</v>
+      </c>
+      <c r="F14" s="2">
+        <f>summary_statistics!Q14*$L$5</f>
+        <v>85</v>
+      </c>
+      <c r="G14" s="2">
+        <f>summary_statistics!R14*$L$5</f>
+        <v>524.54616936363641</v>
+      </c>
+      <c r="H14" s="2">
+        <f>summary_statistics!S14*$L$5</f>
+        <v>214.53453300000001</v>
+      </c>
+      <c r="I14" s="2">
+        <f>summary_statistics!T14*$L$5</f>
+        <v>310.0116363636364</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
         <f>summary_statistics!A15</f>
         <v>2022</v>
       </c>
-      <c r="B14" s="2">
-        <f>summary_statistics!B15*$V$4</f>
-        <v>0.80361445783132535</v>
-      </c>
-      <c r="C14" s="2">
-        <f>summary_statistics!C15*$V$4</f>
-        <v>305.30361445783137</v>
-      </c>
-      <c r="D14" s="2">
-        <f>summary_statistics!D15*$V$4</f>
-        <v>6.289156626506025</v>
-      </c>
-      <c r="E14" s="2">
-        <f>summary_statistics!E15*$V$4</f>
-        <v>6.1144578313253017</v>
-      </c>
-      <c r="F14" s="2">
-        <f>summary_statistics!F15*$V$4</f>
-        <v>0.1746987951807229</v>
-      </c>
-      <c r="G14" s="2">
-        <f>summary_statistics!G15*$V$4</f>
-        <v>2.8425902660229649</v>
-      </c>
-      <c r="H14" s="2">
-        <f>summary_statistics!H15*$V$4</f>
-        <v>2.1571776691566265</v>
-      </c>
-      <c r="I14" s="2">
-        <f>summary_statistics!I15*$V$4</f>
-        <v>0.6854125968663386</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2">
-        <f>summary_statistics!L15*$V$4</f>
-        <v>19.706024096385544</v>
-      </c>
-      <c r="M14" s="2">
-        <f>summary_statistics!M15*$V$4</f>
-        <v>4200.2481927710851</v>
-      </c>
-      <c r="N14" s="2">
-        <f>summary_statistics!N15*$V$4</f>
-        <v>41.857831325301206</v>
-      </c>
-      <c r="O14" s="2">
-        <f>summary_statistics!O15*$V$4</f>
-        <v>38.713253012048199</v>
-      </c>
-      <c r="P14" s="2">
-        <f>summary_statistics!P15*$V$4</f>
-        <v>3.1445783132530125</v>
-      </c>
-      <c r="Q14" s="2">
-        <f>summary_statistics!Q15*$V$4</f>
-        <v>21.170107026921105</v>
-      </c>
-      <c r="R14" s="2">
-        <f>summary_statistics!R15*$V$4</f>
-        <v>9.6529625571084345</v>
-      </c>
-      <c r="S14" s="2">
-        <f>summary_statistics!S15*$V$4</f>
-        <v>11.517144469812672</v>
+      <c r="B15" s="2">
+        <f>summary_statistics!M15*$L$5</f>
+        <v>564</v>
+      </c>
+      <c r="C15" s="2">
+        <f>summary_statistics!N15*$L$5</f>
+        <v>120214</v>
+      </c>
+      <c r="D15" s="2">
+        <f>summary_statistics!O15*$L$5</f>
+        <v>1198</v>
+      </c>
+      <c r="E15" s="2">
+        <f>summary_statistics!P15*$L$5</f>
+        <v>1108</v>
+      </c>
+      <c r="F15" s="2">
+        <f>summary_statistics!Q15*$L$5</f>
+        <v>90</v>
+      </c>
+      <c r="G15" s="2">
+        <f>summary_statistics!R15*$L$5</f>
+        <v>605.90306318429361</v>
+      </c>
+      <c r="H15" s="2">
+        <f>summary_statistics!S15*$L$5</f>
+        <v>276.27444559999998</v>
+      </c>
+      <c r="I15" s="2">
+        <f>summary_statistics!T15*$L$5</f>
+        <v>329.62861758429369</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
         <f>summary_statistics!A16</f>
         <v>2023</v>
       </c>
+      <c r="B16" s="2">
+        <f>summary_statistics!M16*$L$5</f>
+        <v>575</v>
+      </c>
+      <c r="C16" s="2">
+        <f>summary_statistics!N16*$L$5</f>
+        <v>131180</v>
+      </c>
+      <c r="D16" s="2">
+        <f>summary_statistics!O16*$L$5</f>
+        <v>1349</v>
+      </c>
+      <c r="E16" s="2">
+        <f>summary_statistics!P16*$L$5</f>
+        <v>1254</v>
+      </c>
+      <c r="F16" s="2">
+        <f>summary_statistics!Q16*$L$5</f>
+        <v>95</v>
+      </c>
+      <c r="G16" s="2">
+        <f>summary_statistics!R16*$L$5</f>
+        <v>670.66647018429364</v>
+      </c>
+      <c r="H16" s="2">
+        <f>summary_statistics!S16*$L$5</f>
+        <v>319.11785259999999</v>
+      </c>
+      <c r="I16" s="2">
+        <f>summary_statistics!T16*$L$5</f>
+        <v>351.54861758429371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6735B6-73E9-487E-9869-E37A5941B649}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>summary_statistics!A1</f>
+        <v>year</v>
+      </c>
+      <c r="B1" t="str">
+        <f>summary_statistics!M1</f>
+        <v>ECs</v>
+      </c>
+      <c r="C1" t="str">
+        <f>summary_statistics!N1</f>
+        <v>EC Members</v>
+      </c>
+      <c r="D1" t="str">
+        <f>summary_statistics!O1</f>
+        <v>Projects</v>
+      </c>
+      <c r="E1" t="str">
+        <f>summary_statistics!P1</f>
+        <v>PV Projects</v>
+      </c>
+      <c r="F1" t="str">
+        <f>summary_statistics!Q1</f>
+        <v>Wind Projects</v>
+      </c>
+      <c r="G1" t="str">
+        <f>summary_statistics!R1</f>
+        <v>Installed cap (MW)</v>
+      </c>
+      <c r="H1" t="str">
+        <f>summary_statistics!S1</f>
+        <v>PV Installed cap (MW)</v>
+      </c>
+      <c r="I1" t="str">
+        <f>summary_statistics!T1</f>
+        <v>Wind Installed cap (MW)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2009</v>
+      </c>
+      <c r="B2" s="2">
+        <f>summary_statistics!M2*$L$5</f>
+        <v>0.59397590361445785</v>
+      </c>
+      <c r="C2" s="2">
+        <f>summary_statistics!N2*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>summary_statistics!O2*$L$5</f>
+        <v>0.6987951807228916</v>
+      </c>
+      <c r="E2" s="2">
+        <f>summary_statistics!P2*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>summary_statistics!Q2*$L$5</f>
+        <v>0.6987951807228916</v>
+      </c>
+      <c r="G2" s="2">
+        <f>summary_statistics!R2*$L$5</f>
+        <v>1.0926361445783133</v>
+      </c>
+      <c r="H2" s="2">
+        <f>summary_statistics!S2*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <f>summary_statistics!T2*$L$5</f>
+        <v>1.0926361445783133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>summary_statistics!A3</f>
+        <v>2010</v>
+      </c>
+      <c r="B3" s="2">
+        <f>summary_statistics!M3*$L$5</f>
+        <v>0.7686746987951808</v>
+      </c>
+      <c r="C3" s="2">
+        <f>summary_statistics!N3*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f>summary_statistics!O3*$L$5</f>
+        <v>0.73373493975903625</v>
+      </c>
+      <c r="E3" s="2">
+        <f>summary_statistics!P3*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f>summary_statistics!Q3*$L$5</f>
+        <v>0.73373493975903625</v>
+      </c>
+      <c r="G3" s="2">
+        <f>summary_statistics!R3*$L$5</f>
+        <v>1.2533590361445783</v>
+      </c>
+      <c r="H3" s="2">
+        <f>summary_statistics!S3*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <f>summary_statistics!T3*$L$5</f>
+        <v>1.2533590361445783</v>
+      </c>
+      <c r="L3">
+        <v>290000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>summary_statistics!A4</f>
+        <v>2011</v>
+      </c>
+      <c r="B4" s="2">
+        <f>summary_statistics!M4*$L$5</f>
+        <v>1.1180722891566266</v>
+      </c>
+      <c r="C4" s="2">
+        <f>summary_statistics!N4*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f>summary_statistics!O4*$L$5</f>
+        <v>0.80361445783132535</v>
+      </c>
+      <c r="E4" s="2">
+        <f>summary_statistics!P4*$L$5</f>
+        <v>6.9879518072289162E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <f>summary_statistics!Q4*$L$5</f>
+        <v>0.73373493975903625</v>
+      </c>
+      <c r="G4" s="2">
+        <f>summary_statistics!R4*$L$5</f>
+        <v>1.2544009397590363</v>
+      </c>
+      <c r="H4" s="2">
+        <f>summary_statistics!S4*$L$5</f>
+        <v>1.0419036144578315E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <f>summary_statistics!T4*$L$5</f>
+        <v>1.2533590361445783</v>
+      </c>
+      <c r="L4">
+        <v>8300000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>summary_statistics!A5</f>
+        <v>2012</v>
+      </c>
+      <c r="B5" s="2">
+        <f>summary_statistics!M5*$L$5</f>
+        <v>1.9216867469879519</v>
+      </c>
+      <c r="C5" s="2">
+        <f>summary_statistics!N5*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f>summary_statistics!O5*$L$5</f>
+        <v>1.1180722891566266</v>
+      </c>
+      <c r="E5" s="2">
+        <f>summary_statistics!P5*$L$5</f>
+        <v>0.27951807228915665</v>
+      </c>
+      <c r="F5" s="2">
+        <f>summary_statistics!Q5*$L$5</f>
+        <v>0.83855421686747</v>
+      </c>
+      <c r="G5" s="2">
+        <f>summary_statistics!R5*$L$5</f>
+        <v>1.4859246409638556</v>
+      </c>
+      <c r="H5" s="2">
+        <f>summary_statistics!S5*$L$5</f>
+        <v>4.5637893975903614E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <f>summary_statistics!T5*$L$5</f>
+        <v>1.4402867469879519</v>
+      </c>
+      <c r="L5">
+        <f>L3/L4</f>
+        <v>3.4939759036144581E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>summary_statistics!A6</f>
+        <v>2013</v>
+      </c>
+      <c r="B6" s="2">
+        <f>summary_statistics!M6*$L$5</f>
+        <v>3.7734939759036146</v>
+      </c>
+      <c r="C6" s="2">
+        <f>summary_statistics!N6*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>summary_statistics!O6*$L$5</f>
+        <v>1.8168674698795182</v>
+      </c>
+      <c r="E6" s="2">
+        <f>summary_statistics!P6*$L$5</f>
+        <v>0.6987951807228916</v>
+      </c>
+      <c r="F6" s="2">
+        <f>summary_statistics!Q6*$L$5</f>
+        <v>1.1180722891566266</v>
+      </c>
+      <c r="G6" s="2">
+        <f>summary_statistics!R6*$L$5</f>
+        <v>1.9599712192771086</v>
+      </c>
+      <c r="H6" s="2">
+        <f>summary_statistics!S6*$L$5</f>
+        <v>6.0226640963855424E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <f>summary_statistics!T6*$L$5</f>
+        <v>1.8997445783132532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>summary_statistics!A7</f>
+        <v>2014</v>
+      </c>
+      <c r="B7" s="2">
+        <f>summary_statistics!M7*$L$5</f>
+        <v>5.4156626506024104</v>
+      </c>
+      <c r="C7" s="2">
+        <f>summary_statistics!N7*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>summary_statistics!O7*$L$5</f>
+        <v>2.7951807228915664</v>
+      </c>
+      <c r="E7" s="2">
+        <f>summary_statistics!P7*$L$5</f>
+        <v>1.6072289156626507</v>
+      </c>
+      <c r="F7" s="2">
+        <f>summary_statistics!Q7*$L$5</f>
+        <v>1.1879518072289157</v>
+      </c>
+      <c r="G7" s="2">
+        <f>summary_statistics!R7*$L$5</f>
+        <v>2.0372022373493976</v>
+      </c>
+      <c r="H7" s="2">
+        <f>summary_statistics!S7*$L$5</f>
+        <v>0.10775886385542172</v>
+      </c>
+      <c r="I7" s="2">
+        <f>summary_statistics!T7*$L$5</f>
+        <v>1.9294433734939762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>summary_statistics!A8</f>
+        <v>2015</v>
+      </c>
+      <c r="B8" s="2">
+        <f>summary_statistics!M8*$L$5</f>
+        <v>7.1975903614457835</v>
+      </c>
+      <c r="C8" s="2">
+        <f>summary_statistics!N8*$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f>summary_statistics!O8*$L$5</f>
+        <v>4.6819277108433734</v>
+      </c>
+      <c r="E8" s="2">
+        <f>summary_statistics!P8*$L$5</f>
+        <v>3.3891566265060242</v>
+      </c>
+      <c r="F8" s="2">
+        <f>summary_statistics!Q8*$L$5</f>
+        <v>1.2927710843373494</v>
+      </c>
+      <c r="G8" s="2">
+        <f>summary_statistics!R8*$L$5</f>
+        <v>2.3833090265060246</v>
+      </c>
+      <c r="H8" s="2">
+        <f>summary_statistics!S8*$L$5</f>
+        <v>0.24684758072289162</v>
+      </c>
+      <c r="I8" s="2">
+        <f>summary_statistics!T8*$L$5</f>
+        <v>2.1364614457831328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>summary_statistics!A9</f>
+        <v>2016</v>
+      </c>
+      <c r="B9" s="2">
+        <f>summary_statistics!M9*$L$5</f>
+        <v>9.0144578313253021</v>
+      </c>
+      <c r="C9" s="2">
+        <f>summary_statistics!N9*$L$5</f>
+        <v>1781.9277108433737</v>
+      </c>
+      <c r="D9" s="2">
+        <f>summary_statistics!O9*$L$5</f>
+        <v>7.2674698795180728</v>
+      </c>
+      <c r="E9" s="2">
+        <f>summary_statistics!P9*$L$5</f>
+        <v>5.6602409638554221</v>
+      </c>
+      <c r="F9" s="2">
+        <f>summary_statistics!Q9*$L$5</f>
+        <v>1.6072289156626507</v>
+      </c>
+      <c r="G9" s="2">
+        <f>summary_statistics!R9*$L$5</f>
+        <v>4.3047393156626512</v>
+      </c>
+      <c r="H9" s="2">
+        <f>summary_statistics!S9*$L$5</f>
+        <v>0.82135015903614472</v>
+      </c>
+      <c r="I9" s="2">
+        <f>summary_statistics!T9*$L$5</f>
+        <v>3.4833891566265063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>summary_statistics!A10</f>
+        <v>2017</v>
+      </c>
+      <c r="B10" s="2">
+        <f>summary_statistics!M10*$L$5</f>
+        <v>10.831325301204821</v>
+      </c>
+      <c r="C10" s="2">
+        <f>summary_statistics!N10*$L$5</f>
+        <v>2201.2048192771085</v>
+      </c>
+      <c r="D10" s="2">
+        <f>summary_statistics!O10*$L$5</f>
+        <v>11.145783132530122</v>
+      </c>
+      <c r="E10" s="2">
+        <f>summary_statistics!P10*$L$5</f>
+        <v>9.4337349397590362</v>
+      </c>
+      <c r="F10" s="2">
+        <f>summary_statistics!Q10*$L$5</f>
+        <v>1.7120481927710844</v>
+      </c>
+      <c r="G10" s="2">
+        <f>summary_statistics!R10*$L$5</f>
+        <v>4.9115265613119155</v>
+      </c>
+      <c r="H10" s="2">
+        <f>summary_statistics!S10*$L$5</f>
+        <v>1.2911386095046855</v>
+      </c>
+      <c r="I10" s="2">
+        <f>summary_statistics!T10*$L$5</f>
+        <v>3.6203879518072295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>summary_statistics!A11</f>
+        <v>2018</v>
+      </c>
+      <c r="B11" s="2">
+        <f>summary_statistics!M11*$L$5</f>
+        <v>13.346987951807231</v>
+      </c>
+      <c r="C11" s="2">
+        <f>summary_statistics!N11*$L$5</f>
+        <v>2375.9036144578317</v>
+      </c>
+      <c r="D11" s="2">
+        <f>summary_statistics!O11*$L$5</f>
+        <v>17.819277108433738</v>
+      </c>
+      <c r="E11" s="2">
+        <f>summary_statistics!P11*$L$5</f>
+        <v>15.827710843373495</v>
+      </c>
+      <c r="F11" s="2">
+        <f>summary_statistics!Q11*$L$5</f>
+        <v>1.991566265060241</v>
+      </c>
+      <c r="G11" s="2">
+        <f>summary_statistics!R11*$L$5</f>
+        <v>7.7934988879518086</v>
+      </c>
+      <c r="H11" s="2">
+        <f>summary_statistics!S11*$L$5</f>
+        <v>2.573219369879518</v>
+      </c>
+      <c r="I11" s="2">
+        <f>summary_statistics!T11*$L$5</f>
+        <v>5.2202795180722905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>summary_statistics!A12</f>
+        <v>2019</v>
+      </c>
+      <c r="B12" s="2">
+        <f>summary_statistics!M12*$L$5</f>
+        <v>15.653012048192773</v>
+      </c>
+      <c r="C12" s="2">
+        <f>summary_statistics!N12*$L$5</f>
+        <v>3066.3132530120483</v>
+      </c>
+      <c r="D12" s="2">
+        <f>summary_statistics!O12*$L$5</f>
+        <v>24.877108433734943</v>
+      </c>
+      <c r="E12" s="2">
+        <f>summary_statistics!P12*$L$5</f>
+        <v>22.640963855421688</v>
+      </c>
+      <c r="F12" s="2">
+        <f>summary_statistics!Q12*$L$5</f>
+        <v>2.2361445783132532</v>
+      </c>
+      <c r="G12" s="2">
+        <f>summary_statistics!R12*$L$5</f>
+        <v>10.547883948192773</v>
+      </c>
+      <c r="H12" s="2">
+        <f>summary_statistics!S12*$L$5</f>
+        <v>4.1005200927710845</v>
+      </c>
+      <c r="I12" s="2">
+        <f>summary_statistics!T12*$L$5</f>
+        <v>6.4473638554216883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>summary_statistics!A13</f>
+        <v>2020</v>
+      </c>
+      <c r="B13" s="2">
+        <f>summary_statistics!M13*$L$5</f>
+        <v>17.504819277108435</v>
+      </c>
+      <c r="C13" s="2">
+        <f>summary_statistics!N13*$L$5</f>
+        <v>3365.7819277108438</v>
+      </c>
+      <c r="D13" s="2">
+        <f>summary_statistics!O13*$L$5</f>
+        <v>31.061445783132534</v>
+      </c>
+      <c r="E13" s="2">
+        <f>summary_statistics!P13*$L$5</f>
+        <v>28.615662650602413</v>
+      </c>
+      <c r="F13" s="2">
+        <f>summary_statistics!Q13*$L$5</f>
+        <v>2.4457831325301207</v>
+      </c>
+      <c r="G13" s="2">
+        <f>summary_statistics!R13*$L$5</f>
+        <v>13.718762815662654</v>
+      </c>
+      <c r="H13" s="2">
+        <f>summary_statistics!S13*$L$5</f>
+        <v>5.9744351048192783</v>
+      </c>
+      <c r="I13" s="2">
+        <f>summary_statistics!T13*$L$5</f>
+        <v>7.7443277108433746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>summary_statistics!A14</f>
+        <v>2021</v>
+      </c>
+      <c r="B14" s="2">
+        <f>summary_statistics!M14*$L$5</f>
+        <v>18.902409638554218</v>
+      </c>
+      <c r="C14" s="2">
+        <f>summary_statistics!N14*$L$5</f>
+        <v>3894.9445783132533</v>
+      </c>
+      <c r="D14" s="2">
+        <f>summary_statistics!O14*$L$5</f>
+        <v>35.568674698795185</v>
+      </c>
+      <c r="E14" s="2">
+        <f>summary_statistics!P14*$L$5</f>
+        <v>32.598795180722895</v>
+      </c>
+      <c r="F14" s="2">
+        <f>summary_statistics!Q14*$L$5</f>
+        <v>2.9698795180722892</v>
+      </c>
+      <c r="G14" s="2">
+        <f>summary_statistics!R14*$L$5</f>
+        <v>18.327516760898142</v>
+      </c>
+      <c r="H14" s="2">
+        <f>summary_statistics!S14*$L$5</f>
+        <v>7.4957848879518085</v>
+      </c>
+      <c r="I14" s="2">
+        <f>summary_statistics!T14*$L$5</f>
+        <v>10.831731872946333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>summary_statistics!A15</f>
+        <v>2022</v>
+      </c>
       <c r="B15" s="2">
-        <f>summary_statistics!B16*$V$4</f>
-        <v>0.3843373493975904</v>
+        <f>summary_statistics!M15*$L$5</f>
+        <v>19.706024096385544</v>
       </c>
       <c r="C15" s="2">
-        <f>summary_statistics!C16*$V$4</f>
-        <v>383.1493975903615</v>
+        <f>summary_statistics!N15*$L$5</f>
+        <v>4200.2481927710851</v>
       </c>
       <c r="D15" s="2">
-        <f>summary_statistics!D16*$V$4</f>
-        <v>5.2759036144578317</v>
+        <f>summary_statistics!O15*$L$5</f>
+        <v>41.857831325301206</v>
       </c>
       <c r="E15" s="2">
-        <f>summary_statistics!E16*$V$4</f>
-        <v>5.1012048192771084</v>
+        <f>summary_statistics!P15*$L$5</f>
+        <v>38.713253012048199</v>
       </c>
       <c r="F15" s="2">
-        <f>summary_statistics!F16*$V$4</f>
-        <v>0.1746987951807229</v>
+        <f>summary_statistics!Q15*$L$5</f>
+        <v>3.1445783132530125</v>
       </c>
       <c r="G15" s="2">
-        <f>summary_statistics!G16*$V$4</f>
-        <v>2.2628178349397592</v>
+        <f>summary_statistics!R15*$L$5</f>
+        <v>21.170107026921105</v>
       </c>
       <c r="H15" s="2">
-        <f>summary_statistics!H16*$V$4</f>
-        <v>1.4969383168674701</v>
+        <f>summary_statistics!S15*$L$5</f>
+        <v>9.6529625571084345</v>
       </c>
       <c r="I15" s="2">
-        <f>summary_statistics!I16*$V$4</f>
-        <v>0.76587951807228927</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <f>summary_statistics!L16*$V$4</f>
+        <f>summary_statistics!T15*$L$5</f>
+        <v>11.517144469812672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>summary_statistics!A16</f>
+        <v>2023</v>
+      </c>
+      <c r="B16" s="2">
+        <f>summary_statistics!M16*$L$5</f>
         <v>20.090361445783135</v>
       </c>
-      <c r="M15" s="2">
-        <f>summary_statistics!M16*$V$4</f>
+      <c r="C16" s="2">
+        <f>summary_statistics!N16*$L$5</f>
         <v>4583.3975903614464</v>
       </c>
-      <c r="N15" s="2">
-        <f>summary_statistics!N16*$V$4</f>
+      <c r="D16" s="2">
+        <f>summary_statistics!O16*$L$5</f>
         <v>47.133734939759037</v>
       </c>
-      <c r="O15" s="2">
-        <f>summary_statistics!O16*$V$4</f>
+      <c r="E16" s="2">
+        <f>summary_statistics!P16*$L$5</f>
         <v>43.814457831325306</v>
       </c>
-      <c r="P15" s="2">
-        <f>summary_statistics!P16*$V$4</f>
+      <c r="F16" s="2">
+        <f>summary_statistics!Q16*$L$5</f>
         <v>3.3192771084337354</v>
       </c>
-      <c r="Q15" s="2">
-        <f>summary_statistics!Q16*$V$4</f>
+      <c r="G16" s="2">
+        <f>summary_statistics!R16*$L$5</f>
         <v>23.432924861860865</v>
       </c>
-      <c r="R15" s="2">
-        <f>summary_statistics!R16*$V$4</f>
+      <c r="H16" s="2">
+        <f>summary_statistics!S16*$L$5</f>
         <v>11.149900873975904</v>
       </c>
-      <c r="S15" s="2">
-        <f>summary_statistics!S16*$V$4</f>
+      <c r="I16" s="2">
+        <f>summary_statistics!T16*$L$5</f>
         <v>12.283023987884961</v>
       </c>
     </row>

--- a/Energy community potential model/_EC_summary.xlsx
+++ b/Energy community potential model/_EC_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Energy-community-potential-model\Energy community potential model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA4ACD-1335-41FD-98E2-41A95ABF7D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CEA00A-9BB3-466F-9E79-55C3E22E90EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{2AD6F2B3-B3D8-4900-A927-DF019433309F}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12675" activeTab="1" xr2:uid="{2AD6F2B3-B3D8-4900-A927-DF019433309F}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_statistics" sheetId="1" r:id="rId1"/>
@@ -43594,7 +43594,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Energy community potential model/_EC_summary.xlsx
+++ b/Energy community potential model/_EC_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Energy-community-potential-model\Energy community potential model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99813512-AE82-435C-958D-418BA29D6DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0695E7FE-E33E-4ECF-977F-AB49BEE4B4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="14292" windowWidth="23256" windowHeight="12576" xr2:uid="{2AD6F2B3-B3D8-4900-A927-DF019433309F}"/>
+    <workbookView xWindow="-23148" yWindow="1284" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2AD6F2B3-B3D8-4900-A927-DF019433309F}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_statistics" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,40 +553,40 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>204</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>315</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>503</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>702</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>871</c:v>
+                  <c:v>882</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>994</c:v>
+                  <c:v>1005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1171</c:v>
+                  <c:v>1182</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1316</c:v>
+                  <c:v>1327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -693,40 +693,40 @@
                   <c:v>35.901820000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.528188</c:v>
+                  <c:v>59.672188000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.095728000000001</c:v>
+                  <c:v>73.239728000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.306133000000003</c:v>
+                  <c:v>75.450133000000008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.211948000000007</c:v>
+                  <c:v>85.355948000000012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>123.20460800000001</c:v>
+                  <c:v>140.34860800000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>140.57127744444446</c:v>
+                  <c:v>157.71527744444447</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>223.05531300000001</c:v>
+                  <c:v>240.19931300000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>301.88771300000002</c:v>
+                  <c:v>319.03171300000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>392.64045300000004</c:v>
+                  <c:v>409.78445300000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>524.54616936363641</c:v>
+                  <c:v>541.69016936363641</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>605.90306318429361</c:v>
+                  <c:v>623.04706318429362</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>670.66647018429364</c:v>
+                  <c:v>687.81047018429365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,40 +1026,40 @@
                         <c:v>21</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>24</c:v>
+                        <c:v>35</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>32</c:v>
+                        <c:v>43</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>33</c:v>
+                        <c:v>44</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>36</c:v>
+                        <c:v>47</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>43</c:v>
+                        <c:v>54</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>46</c:v>
+                        <c:v>57</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>54</c:v>
+                        <c:v>65</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>61</c:v>
+                        <c:v>72</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>67</c:v>
+                        <c:v>78</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>79</c:v>
+                        <c:v>90</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>84</c:v>
+                        <c:v>95</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>89</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1350,40 +1350,40 @@
                         <c:v>35.872</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>41.222000000000001</c:v>
+                        <c:v>58.366</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>54.372</c:v>
+                        <c:v>71.516000000000005</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>55.222000000000001</c:v>
+                        <c:v>72.366</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>61.146999999999998</c:v>
+                        <c:v>78.290999999999997</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>99.697000000000003</c:v>
+                        <c:v>116.84099999999999</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>103.61800000000001</c:v>
+                        <c:v>120.762</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>149.40800000000002</c:v>
+                        <c:v>166.55199999999999</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>184.52800000000002</c:v>
+                        <c:v>201.672</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>221.64800000000002</c:v>
+                        <c:v>238.792</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>310.0116363636364</c:v>
+                        <c:v>327.1556363636364</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>329.62861758429369</c:v>
+                        <c:v>346.7726175842937</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>351.54861758429371</c:v>
+                        <c:v>368.69261758429371</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2174,7 +2174,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20</c:v>
@@ -2314,7 +2314,7 @@
                   <c:v>2.9819999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6263679999999994</c:v>
+                  <c:v>23.770368000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13.567540000000001</c:v>
@@ -2647,7 +2647,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>8</c:v>
@@ -2971,7 +2971,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5.35</c:v>
+                        <c:v>22.494</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>13.15</c:v>
@@ -5755,7 +5755,7 @@
       <sheetName val="energy_communities"/>
       <sheetName val="EC_projects_original"/>
       <sheetName val="EC_projects"/>
-      <sheetName val="projects_per_year"/>
+      <sheetName val="EC_annual_development"/>
       <sheetName val="province"/>
       <sheetName val="municipalities"/>
     </sheetNames>
@@ -41414,8 +41414,8 @@
           <cell r="G1640" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1640" t="str">
-            <v>voor 2012</v>
+          <cell r="H1640">
+            <v>2012</v>
           </cell>
           <cell r="I1640" t="str">
             <v>wind</v>
@@ -42114,8 +42114,8 @@
           <cell r="G1675" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1675" t="str">
-            <v>voor 2012</v>
+          <cell r="H1675">
+            <v>2012</v>
           </cell>
           <cell r="I1675" t="str">
             <v>wind</v>
@@ -42194,8 +42194,8 @@
           <cell r="G1679" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1679" t="str">
-            <v>voor 2012</v>
+          <cell r="H1679">
+            <v>2012</v>
           </cell>
           <cell r="I1679" t="str">
             <v>wind</v>
@@ -42374,8 +42374,8 @@
           <cell r="G1688" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1688" t="str">
-            <v>voor 2012</v>
+          <cell r="H1688">
+            <v>2012</v>
           </cell>
           <cell r="I1688" t="str">
             <v>wind</v>
@@ -42394,8 +42394,8 @@
           <cell r="G1689" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1689" t="str">
-            <v>voor 2012</v>
+          <cell r="H1689">
+            <v>2012</v>
           </cell>
           <cell r="I1689" t="str">
             <v>wind</v>
@@ -42414,8 +42414,8 @@
           <cell r="G1690" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1690" t="str">
-            <v>voor 2012</v>
+          <cell r="H1690">
+            <v>2012</v>
           </cell>
           <cell r="I1690" t="str">
             <v>wind</v>
@@ -42534,8 +42534,8 @@
           <cell r="G1696" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1696" t="str">
-            <v>voor 2012</v>
+          <cell r="H1696">
+            <v>2012</v>
           </cell>
           <cell r="I1696" t="str">
             <v>wind</v>
@@ -42634,8 +42634,8 @@
           <cell r="G1701" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1701" t="str">
-            <v>voor 2012</v>
+          <cell r="H1701">
+            <v>2012</v>
           </cell>
           <cell r="I1701" t="str">
             <v>wind</v>
@@ -43294,8 +43294,8 @@
           <cell r="G1734" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1734" t="str">
-            <v>voor 2012</v>
+          <cell r="H1734">
+            <v>2012</v>
           </cell>
           <cell r="I1734" t="str">
             <v>wind</v>
@@ -43474,8 +43474,8 @@
           <cell r="G1743" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1743" t="str">
-            <v>voor 2012</v>
+          <cell r="H1743">
+            <v>2012</v>
           </cell>
           <cell r="I1743" t="str">
             <v>wind</v>
@@ -44374,8 +44374,8 @@
           <cell r="G1788" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1788" t="str">
-            <v>voor 2012</v>
+          <cell r="H1788">
+            <v>2012</v>
           </cell>
           <cell r="I1788" t="str">
             <v>wind</v>
@@ -44391,8 +44391,8 @@
           <cell r="G1789" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1789" t="str">
-            <v>voor 2012</v>
+          <cell r="H1789">
+            <v>2012</v>
           </cell>
           <cell r="I1789" t="str">
             <v>wind</v>
@@ -44408,8 +44408,8 @@
           <cell r="G1790" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1790" t="str">
-            <v>voor 2012</v>
+          <cell r="H1790">
+            <v>2012</v>
           </cell>
           <cell r="I1790" t="str">
             <v>wind</v>
@@ -44425,8 +44425,8 @@
           <cell r="G1791" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1791" t="str">
-            <v>voor 2012</v>
+          <cell r="H1791">
+            <v>2012</v>
           </cell>
           <cell r="I1791" t="str">
             <v>wind</v>
@@ -44442,8 +44442,8 @@
           <cell r="G1792" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1792" t="str">
-            <v>voor 2012</v>
+          <cell r="H1792">
+            <v>2012</v>
           </cell>
           <cell r="I1792" t="str">
             <v>wind</v>
@@ -44459,8 +44459,8 @@
           <cell r="G1793" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1793" t="str">
-            <v>voor 2012</v>
+          <cell r="H1793">
+            <v>2012</v>
           </cell>
           <cell r="I1793" t="str">
             <v>wind</v>
@@ -44476,8 +44476,8 @@
           <cell r="G1794" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1794" t="str">
-            <v>voor 2012</v>
+          <cell r="H1794">
+            <v>2012</v>
           </cell>
           <cell r="I1794" t="str">
             <v>wind</v>
@@ -44493,8 +44493,8 @@
           <cell r="G1795" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1795" t="str">
-            <v>voor 2012</v>
+          <cell r="H1795">
+            <v>2012</v>
           </cell>
           <cell r="I1795" t="str">
             <v>wind</v>
@@ -44510,8 +44510,8 @@
           <cell r="G1796" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1796" t="str">
-            <v>voor 2012</v>
+          <cell r="H1796">
+            <v>2012</v>
           </cell>
           <cell r="I1796" t="str">
             <v>wind</v>
@@ -44527,8 +44527,8 @@
           <cell r="G1797" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1797" t="str">
-            <v>voor 2012</v>
+          <cell r="H1797">
+            <v>2012</v>
           </cell>
           <cell r="I1797" t="str">
             <v>wind</v>
@@ -44564,8 +44564,8 @@
           <cell r="G1799" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1799" t="str">
-            <v>voor 2012</v>
+          <cell r="H1799">
+            <v>2012</v>
           </cell>
           <cell r="I1799" t="str">
             <v>wind</v>
@@ -44798,8 +44798,8 @@
           <cell r="G1811" t="str">
             <v>realized</v>
           </cell>
-          <cell r="H1811" t="str">
-            <v>voor 2012</v>
+          <cell r="H1811">
+            <v>2012</v>
           </cell>
           <cell r="I1811" t="str">
             <v>wind</v>
@@ -54694,15 +54694,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8BF28F-863F-404A-8632-A7586928913E}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16:V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -54758,7 +54761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -54821,8 +54824,12 @@
         <f t="shared" si="0"/>
         <v>31.271999999999998</v>
       </c>
+      <c r="U2" s="1">
+        <f>O2*99</f>
+        <v>1980</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -54885,8 +54892,12 @@
         <f t="shared" si="1"/>
         <v>35.872</v>
       </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U16" si="2">O3*99</f>
+        <v>2079</v>
+      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -54910,7 +54921,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H16" si="2">SUM(I4:J4)</f>
+        <f t="shared" ref="H4:H16" si="3">SUM(I4:J4)</f>
         <v>2.9819999999999999E-2</v>
       </c>
       <c r="I4" s="1">
@@ -54922,35 +54933,39 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M16" si="3">M3+C4</f>
+        <f t="shared" ref="M4:M16" si="4">M3+C4</f>
         <v>32</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O16" si="4">O3+E4</f>
+        <f t="shared" ref="O4:O15" si="5">O3+E4</f>
         <v>23</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P16" si="5">P3+F4</f>
+        <f t="shared" ref="P4:P16" si="6">P3+F4</f>
         <v>2</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q16" si="6">Q3+G4</f>
+        <f t="shared" ref="Q4:Q16" si="7">Q3+G4</f>
         <v>21</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" ref="R4:R16" si="7">R3+H4</f>
+        <f t="shared" ref="R4:R16" si="8">R3+H4</f>
         <v>35.901820000000001</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" ref="S4:S16" si="8">S3+I4</f>
+        <f t="shared" ref="S4:S16" si="9">S3+I4</f>
         <v>2.9819999999999999E-2</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" ref="T4:T16" si="9">T3+J4</f>
+        <f t="shared" ref="T4:T16" si="10">T3+J4</f>
         <v>35.872</v>
       </c>
+      <c r="U4" s="1">
+        <f t="shared" si="2"/>
+        <v>2277</v>
+      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -54963,7 +54978,7 @@
       </c>
       <c r="E5">
         <f>COUNTIFS([1]EC_projects_original!$G:$G,"realized",[1]EC_projects_original!$P:$P, "&gt;0",[1]EC_projects_original!$H:$H, A5)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <f>COUNTIFS([1]EC_projects!$I:$I, "PV",[1]EC_projects_original!$H:$H, $A5,[1]EC_projects_original!$G:$G,"realized",[1]EC_projects_original!$P:$P, "&gt;0")</f>
@@ -54971,11 +54986,11 @@
       </c>
       <c r="G5">
         <f>COUNTIFS([1]EC_projects!$I:$I, "wind",[1]EC_projects_original!$H:$H, $A5,[1]EC_projects_original!$G:$G,"realized",[1]EC_projects_original!$P:$P, "&gt;0")</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
-        <v>6.6263679999999994</v>
+        <f t="shared" si="3"/>
+        <v>23.770368000000001</v>
       </c>
       <c r="I5" s="1">
         <f>SUMIFS([1]EC_projects_original!$P:$P, [1]EC_projects!$I:$I, "PV",[1]EC_projects_original!$H:$H, $A5,[1]EC_projects_original!$G:$G,"realized",[1]EC_projects_original!$P:$P, "&gt;0") / 1000</f>
@@ -54983,38 +54998,42 @@
       </c>
       <c r="J5" s="1">
         <f>SUMIFS([1]EC_projects_original!$P:$P, [1]EC_projects!$I:$I, "wind",[1]EC_projects_original!$H:$H, $A5,[1]EC_projects_original!$G:$G,"realized",[1]EC_projects_original!$P:$P, "&gt;0") / 1000</f>
-        <v>5.35</v>
+        <v>22.494</v>
       </c>
       <c r="M5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="O5">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <f t="shared" si="5"/>
+        <v>43</v>
       </c>
       <c r="P5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>35</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="7"/>
-        <v>42.528188</v>
+        <f t="shared" si="8"/>
+        <v>59.672188000000006</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3061879999999999</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" si="9"/>
-        <v>41.222000000000001</v>
+        <f t="shared" si="10"/>
+        <v>58.366</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="2"/>
+        <v>4257</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -55038,7 +55057,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.567540000000001</v>
       </c>
       <c r="I6" s="1">
@@ -55050,35 +55069,39 @@
         <v>13.15</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="O6">
-        <f t="shared" si="4"/>
-        <v>52</v>
+        <f t="shared" si="5"/>
+        <v>63</v>
       </c>
       <c r="P6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>43</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="7"/>
-        <v>56.095728000000001</v>
+        <f t="shared" si="8"/>
+        <v>73.239728000000014</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7237279999999999</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="9"/>
-        <v>54.372</v>
+        <f t="shared" si="10"/>
+        <v>71.516000000000005</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="2"/>
+        <v>6237</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -55102,7 +55125,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2104050000000002</v>
       </c>
       <c r="I7" s="1">
@@ -55114,35 +55137,39 @@
         <v>0.85</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>155</v>
       </c>
       <c r="O7">
-        <f t="shared" si="4"/>
-        <v>79</v>
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
       <c r="P7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="6"/>
-        <v>33</v>
+        <f t="shared" si="7"/>
+        <v>44</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="7"/>
-        <v>58.306133000000003</v>
+        <f t="shared" si="8"/>
+        <v>75.450133000000008</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0841330000000005</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" si="9"/>
-        <v>55.222000000000001</v>
+        <f t="shared" si="10"/>
+        <v>72.366</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="2"/>
+        <v>8910</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -55166,7 +55193,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9058150000000005</v>
       </c>
       <c r="I8" s="1">
@@ -55178,35 +55205,39 @@
         <v>5.9249999999999998</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>206</v>
       </c>
       <c r="O8">
-        <f t="shared" si="4"/>
-        <v>133</v>
+        <f t="shared" si="5"/>
+        <v>144</v>
       </c>
       <c r="P8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="6"/>
-        <v>36</v>
+        <f t="shared" si="7"/>
+        <v>47</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="7"/>
-        <v>68.211948000000007</v>
+        <f t="shared" si="8"/>
+        <v>85.355948000000012</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.0649480000000011</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" si="9"/>
-        <v>61.146999999999998</v>
+        <f t="shared" si="10"/>
+        <v>78.290999999999997</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="2"/>
+        <v>14256</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -55233,7 +55264,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54.992660000000001</v>
       </c>
       <c r="I9" s="1">
@@ -55245,38 +55276,42 @@
         <v>38.549999999999997</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>258</v>
       </c>
       <c r="N9">
         <v>51000</v>
       </c>
       <c r="O9">
-        <f t="shared" si="4"/>
-        <v>204</v>
+        <f t="shared" si="5"/>
+        <v>215</v>
       </c>
       <c r="P9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="6"/>
-        <v>43</v>
+        <f t="shared" si="7"/>
+        <v>54</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="7"/>
-        <v>123.20460800000001</v>
+        <f t="shared" si="8"/>
+        <v>140.34860800000001</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.507608000000001</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="9"/>
-        <v>99.697000000000003</v>
+        <f t="shared" si="10"/>
+        <v>116.84099999999999</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="2"/>
+        <v>21285</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -55304,7 +55339,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.366669444444444</v>
       </c>
       <c r="I10" s="1">
@@ -55316,38 +55351,42 @@
         <v>3.9209999999999998</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="N10">
         <v>63000</v>
       </c>
       <c r="O10">
-        <f t="shared" si="4"/>
-        <v>315</v>
+        <f t="shared" si="5"/>
+        <v>326</v>
       </c>
       <c r="P10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>269</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="6"/>
-        <v>46</v>
+        <f t="shared" si="7"/>
+        <v>57</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="7"/>
-        <v>140.57127744444446</v>
+        <f t="shared" si="8"/>
+        <v>157.71527744444447</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36.953277444444446</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" si="9"/>
-        <v>103.61800000000001</v>
+        <f t="shared" si="10"/>
+        <v>120.762</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="2"/>
+        <v>32274</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -55359,7 +55398,7 @@
         <v>72</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D16" si="10">N11-N10</f>
+        <f t="shared" ref="D11:D16" si="11">N11-N10</f>
         <v>5000</v>
       </c>
       <c r="E11">
@@ -55375,7 +55414,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82.48403555555555</v>
       </c>
       <c r="I11" s="1">
@@ -55387,38 +55426,42 @@
         <v>45.79</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>382</v>
       </c>
       <c r="N11">
         <v>68000</v>
       </c>
       <c r="O11">
-        <f t="shared" si="4"/>
-        <v>503</v>
+        <f t="shared" si="5"/>
+        <v>514</v>
       </c>
       <c r="P11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>449</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="6"/>
-        <v>54</v>
+        <f t="shared" si="7"/>
+        <v>65</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="7"/>
-        <v>223.05531300000001</v>
+        <f t="shared" si="8"/>
+        <v>240.19931300000002</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73.647312999999997</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="9"/>
-        <v>149.40800000000002</v>
+        <f t="shared" si="10"/>
+        <v>166.55199999999999</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="2"/>
+        <v>50886</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -55430,7 +55473,7 @@
         <v>66</v>
       </c>
       <c r="D12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19760</v>
       </c>
       <c r="E12">
@@ -55446,7 +55489,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78.832400000000007</v>
       </c>
       <c r="I12" s="1">
@@ -55458,38 +55501,42 @@
         <v>35.119999999999997</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>448</v>
       </c>
       <c r="N12">
         <v>87760</v>
       </c>
       <c r="O12">
-        <f t="shared" si="4"/>
-        <v>702</v>
+        <f t="shared" si="5"/>
+        <v>713</v>
       </c>
       <c r="P12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>641</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="6"/>
-        <v>61</v>
+        <f t="shared" si="7"/>
+        <v>72</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="7"/>
-        <v>301.88771300000002</v>
+        <f t="shared" si="8"/>
+        <v>319.03171300000002</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>117.359713</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="9"/>
-        <v>184.52800000000002</v>
+        <f t="shared" si="10"/>
+        <v>201.672</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="2"/>
+        <v>70587</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -55501,7 +55548,7 @@
         <v>53</v>
       </c>
       <c r="D13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8571</v>
       </c>
       <c r="E13">
@@ -55517,7 +55564,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90.752740000000003</v>
       </c>
       <c r="I13" s="1">
@@ -55529,38 +55576,42 @@
         <v>37.119999999999997</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>501</v>
       </c>
       <c r="N13">
         <v>96331</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
-        <v>871</v>
+        <f t="shared" si="5"/>
+        <v>882</v>
       </c>
       <c r="P13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>804</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="6"/>
-        <v>67</v>
+        <f t="shared" si="7"/>
+        <v>78</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="7"/>
-        <v>392.64045300000004</v>
+        <f t="shared" si="8"/>
+        <v>409.78445300000004</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>170.99245300000001</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="9"/>
-        <v>221.64800000000002</v>
+        <f t="shared" si="10"/>
+        <v>238.792</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="2"/>
+        <v>87318</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -55572,7 +55623,7 @@
         <v>40</v>
       </c>
       <c r="D14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15145</v>
       </c>
       <c r="E14">
@@ -55588,7 +55639,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131.90571636363637</v>
       </c>
       <c r="I14" s="1">
@@ -55600,38 +55651,42 @@
         <v>88.363636363636374</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>541</v>
       </c>
       <c r="N14">
         <v>111476</v>
       </c>
       <c r="O14">
-        <f t="shared" si="4"/>
-        <v>994</v>
+        <f t="shared" si="5"/>
+        <v>1005</v>
       </c>
       <c r="P14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>915</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="6"/>
-        <v>79</v>
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="7"/>
-        <v>524.54616936363641</v>
+        <f t="shared" si="8"/>
+        <v>541.69016936363641</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>214.53453300000001</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="9"/>
-        <v>310.0116363636364</v>
+        <f t="shared" si="10"/>
+        <v>327.1556363636364</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="2"/>
+        <v>99495</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -55643,7 +55698,7 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8738</v>
       </c>
       <c r="E15">
@@ -55659,7 +55714,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81.356893820657262</v>
       </c>
       <c r="I15" s="1">
@@ -55671,38 +55726,42 @@
         <v>19.616981220657276</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>564</v>
       </c>
       <c r="N15">
         <v>120214</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
-        <v>1171</v>
+        <f t="shared" si="5"/>
+        <v>1182</v>
       </c>
       <c r="P15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1087</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="6"/>
-        <v>84</v>
+        <f t="shared" si="7"/>
+        <v>95</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="7"/>
-        <v>605.90306318429361</v>
+        <f t="shared" si="8"/>
+        <v>623.04706318429362</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>276.27444559999998</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="9"/>
-        <v>329.62861758429369</v>
+        <f t="shared" si="10"/>
+        <v>346.7726175842937</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="2"/>
+        <v>117018</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2023</v>
       </c>
@@ -55714,7 +55773,7 @@
         <v>11</v>
       </c>
       <c r="D16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10966</v>
       </c>
       <c r="E16">
@@ -55730,7 +55789,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64.763407000000001</v>
       </c>
       <c r="I16" s="1">
@@ -55742,35 +55801,46 @@
         <v>21.92</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>575</v>
       </c>
       <c r="N16">
         <v>131180</v>
       </c>
       <c r="O16">
-        <f t="shared" si="4"/>
-        <v>1316</v>
+        <f>O15+E16</f>
+        <v>1327</v>
       </c>
       <c r="P16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1227</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="6"/>
-        <v>89</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="7"/>
-        <v>670.66647018429364</v>
+        <f t="shared" si="8"/>
+        <v>687.81047018429365</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>319.11785259999999</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" si="9"/>
-        <v>351.54861758429371</v>
+        <f t="shared" si="10"/>
+        <v>368.69261758429371</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="2"/>
+        <v>131373</v>
+      </c>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <f>N16/1327</f>
+        <v>98.854559155990955</v>
       </c>
     </row>
   </sheetData>
@@ -55781,20 +55851,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F94C2C-27D9-49D2-80F1-03A3F1312A67}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>summary_statistics!A1</f>
         <v>year</v>
@@ -55831,580 +55901,580 @@
         <f>summary_statistics!T1</f>
         <v>Wind Installed cap (MW)</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2009</v>
       </c>
       <c r="B2" s="2">
-        <f>summary_statistics!M2*$L$5</f>
+        <f>summary_statistics!M2*$L$2</f>
         <v>17</v>
       </c>
       <c r="C2" s="2">
-        <f>summary_statistics!N2*$L$5</f>
+        <f>summary_statistics!N2*$L$2</f>
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <f>summary_statistics!O2*$L$5</f>
+        <f>summary_statistics!O2*$L$2</f>
         <v>20</v>
       </c>
       <c r="E2" s="2">
-        <f>summary_statistics!P2*$L$5</f>
+        <f>summary_statistics!P2*$L$2</f>
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>summary_statistics!Q2*$L$5</f>
+        <f>summary_statistics!Q2*$L$2</f>
         <v>20</v>
       </c>
       <c r="G2" s="2">
-        <f>summary_statistics!R2*$L$5</f>
+        <f>summary_statistics!R2*$L$2</f>
         <v>31.271999999999998</v>
       </c>
       <c r="H2" s="2">
-        <f>summary_statistics!S2*$L$5</f>
+        <f>summary_statistics!S2*$L$2</f>
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <f>summary_statistics!T2*$L$5</f>
+        <f>summary_statistics!T2*$L$2</f>
         <v>31.271999999999998</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>summary_statistics!A3</f>
         <v>2010</v>
       </c>
       <c r="B3" s="2">
-        <f>summary_statistics!M3*$L$5</f>
+        <f>summary_statistics!M3*$L$2</f>
         <v>22</v>
       </c>
       <c r="C3" s="2">
-        <f>summary_statistics!N3*$L$5</f>
+        <f>summary_statistics!N3*$L$2</f>
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f>summary_statistics!O3*$L$5</f>
+        <f>summary_statistics!O3*$L$2</f>
         <v>21</v>
       </c>
       <c r="E3" s="2">
-        <f>summary_statistics!P3*$L$5</f>
+        <f>summary_statistics!P3*$L$2</f>
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <f>summary_statistics!Q3*$L$5</f>
+        <f>summary_statistics!Q3*$L$2</f>
         <v>21</v>
       </c>
       <c r="G3" s="2">
-        <f>summary_statistics!R3*$L$5</f>
+        <f>summary_statistics!R3*$L$2</f>
         <v>35.872</v>
       </c>
       <c r="H3" s="2">
-        <f>summary_statistics!S3*$L$5</f>
+        <f>summary_statistics!S3*$L$2</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f>summary_statistics!T3*$L$5</f>
+        <f>summary_statistics!T3*$L$2</f>
         <v>35.872</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>summary_statistics!A4</f>
         <v>2011</v>
       </c>
       <c r="B4" s="2">
-        <f>summary_statistics!M4*$L$5</f>
+        <f>summary_statistics!M4*$L$2</f>
         <v>32</v>
       </c>
       <c r="C4" s="2">
-        <f>summary_statistics!N4*$L$5</f>
+        <f>summary_statistics!N4*$L$2</f>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f>summary_statistics!O4*$L$5</f>
+        <f>summary_statistics!O4*$L$2</f>
         <v>23</v>
       </c>
       <c r="E4" s="2">
-        <f>summary_statistics!P4*$L$5</f>
+        <f>summary_statistics!P4*$L$2</f>
         <v>2</v>
       </c>
       <c r="F4" s="2">
-        <f>summary_statistics!Q4*$L$5</f>
+        <f>summary_statistics!Q4*$L$2</f>
         <v>21</v>
       </c>
       <c r="G4" s="2">
-        <f>summary_statistics!R4*$L$5</f>
+        <f>summary_statistics!R4*$L$2</f>
         <v>35.901820000000001</v>
       </c>
       <c r="H4" s="2">
-        <f>summary_statistics!S4*$L$5</f>
+        <f>summary_statistics!S4*$L$2</f>
         <v>2.9819999999999999E-2</v>
       </c>
       <c r="I4" s="2">
-        <f>summary_statistics!T4*$L$5</f>
+        <f>summary_statistics!T4*$L$2</f>
         <v>35.872</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>summary_statistics!A5</f>
         <v>2012</v>
       </c>
       <c r="B5" s="2">
-        <f>summary_statistics!M5*$L$5</f>
+        <f>summary_statistics!M5*$L$2</f>
         <v>55</v>
       </c>
       <c r="C5" s="2">
-        <f>summary_statistics!N5*$L$5</f>
+        <f>summary_statistics!N5*$L$2</f>
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <f>summary_statistics!O5*$L$5</f>
-        <v>32</v>
+        <f>summary_statistics!O5*$L$2</f>
+        <v>43</v>
       </c>
       <c r="E5" s="2">
-        <f>summary_statistics!P5*$L$5</f>
+        <f>summary_statistics!P5*$L$2</f>
         <v>8</v>
       </c>
       <c r="F5" s="2">
-        <f>summary_statistics!Q5*$L$5</f>
-        <v>24</v>
+        <f>summary_statistics!Q5*$L$2</f>
+        <v>35</v>
       </c>
       <c r="G5" s="2">
-        <f>summary_statistics!R5*$L$5</f>
-        <v>42.528188</v>
+        <f>summary_statistics!R5*$L$2</f>
+        <v>59.672188000000006</v>
       </c>
       <c r="H5" s="2">
-        <f>summary_statistics!S5*$L$5</f>
+        <f>summary_statistics!S5*$L$2</f>
         <v>1.3061879999999999</v>
       </c>
       <c r="I5" s="2">
-        <f>summary_statistics!T5*$L$5</f>
-        <v>41.222000000000001</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
+        <f>summary_statistics!T5*$L$2</f>
+        <v>58.366</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>summary_statistics!A6</f>
         <v>2013</v>
       </c>
       <c r="B6" s="2">
-        <f>summary_statistics!M6*$L$5</f>
+        <f>summary_statistics!M6*$L$2</f>
         <v>108</v>
       </c>
       <c r="C6" s="2">
-        <f>summary_statistics!N6*$L$5</f>
+        <f>summary_statistics!N6*$L$2</f>
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <f>summary_statistics!O6*$L$5</f>
-        <v>52</v>
+        <f>summary_statistics!O6*$L$2</f>
+        <v>63</v>
       </c>
       <c r="E6" s="2">
-        <f>summary_statistics!P6*$L$5</f>
+        <f>summary_statistics!P6*$L$2</f>
         <v>20</v>
       </c>
       <c r="F6" s="2">
-        <f>summary_statistics!Q6*$L$5</f>
-        <v>32</v>
+        <f>summary_statistics!Q6*$L$2</f>
+        <v>43</v>
       </c>
       <c r="G6" s="2">
-        <f>summary_statistics!R6*$L$5</f>
-        <v>56.095728000000001</v>
+        <f>summary_statistics!R6*$L$2</f>
+        <v>73.239728000000014</v>
       </c>
       <c r="H6" s="2">
-        <f>summary_statistics!S6*$L$5</f>
+        <f>summary_statistics!S6*$L$2</f>
         <v>1.7237279999999999</v>
       </c>
       <c r="I6" s="2">
-        <f>summary_statistics!T6*$L$5</f>
-        <v>54.372</v>
+        <f>summary_statistics!T6*$L$2</f>
+        <v>71.516000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>summary_statistics!A7</f>
         <v>2014</v>
       </c>
       <c r="B7" s="2">
-        <f>summary_statistics!M7*$L$5</f>
+        <f>summary_statistics!M7*$L$2</f>
         <v>155</v>
       </c>
       <c r="C7" s="2">
-        <f>summary_statistics!N7*$L$5</f>
+        <f>summary_statistics!N7*$L$2</f>
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <f>summary_statistics!O7*$L$5</f>
-        <v>79</v>
+        <f>summary_statistics!O7*$L$2</f>
+        <v>90</v>
       </c>
       <c r="E7" s="2">
-        <f>summary_statistics!P7*$L$5</f>
+        <f>summary_statistics!P7*$L$2</f>
         <v>46</v>
       </c>
       <c r="F7" s="2">
-        <f>summary_statistics!Q7*$L$5</f>
-        <v>33</v>
+        <f>summary_statistics!Q7*$L$2</f>
+        <v>44</v>
       </c>
       <c r="G7" s="2">
-        <f>summary_statistics!R7*$L$5</f>
-        <v>58.306133000000003</v>
+        <f>summary_statistics!R7*$L$2</f>
+        <v>75.450133000000008</v>
       </c>
       <c r="H7" s="2">
-        <f>summary_statistics!S7*$L$5</f>
+        <f>summary_statistics!S7*$L$2</f>
         <v>3.0841330000000005</v>
       </c>
       <c r="I7" s="2">
-        <f>summary_statistics!T7*$L$5</f>
-        <v>55.222000000000001</v>
+        <f>summary_statistics!T7*$L$2</f>
+        <v>72.366</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>summary_statistics!A8</f>
         <v>2015</v>
       </c>
       <c r="B8" s="2">
-        <f>summary_statistics!M8*$L$5</f>
+        <f>summary_statistics!M8*$L$2</f>
         <v>206</v>
       </c>
       <c r="C8" s="2">
-        <f>summary_statistics!N8*$L$5</f>
+        <f>summary_statistics!N8*$L$2</f>
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <f>summary_statistics!O8*$L$5</f>
-        <v>133</v>
+        <f>summary_statistics!O8*$L$2</f>
+        <v>144</v>
       </c>
       <c r="E8" s="2">
-        <f>summary_statistics!P8*$L$5</f>
+        <f>summary_statistics!P8*$L$2</f>
         <v>97</v>
       </c>
       <c r="F8" s="2">
-        <f>summary_statistics!Q8*$L$5</f>
-        <v>36</v>
+        <f>summary_statistics!Q8*$L$2</f>
+        <v>47</v>
       </c>
       <c r="G8" s="2">
-        <f>summary_statistics!R8*$L$5</f>
-        <v>68.211948000000007</v>
+        <f>summary_statistics!R8*$L$2</f>
+        <v>85.355948000000012</v>
       </c>
       <c r="H8" s="2">
-        <f>summary_statistics!S8*$L$5</f>
+        <f>summary_statistics!S8*$L$2</f>
         <v>7.0649480000000011</v>
       </c>
       <c r="I8" s="2">
-        <f>summary_statistics!T8*$L$5</f>
-        <v>61.146999999999998</v>
+        <f>summary_statistics!T8*$L$2</f>
+        <v>78.290999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>summary_statistics!A9</f>
         <v>2016</v>
       </c>
       <c r="B9" s="2">
-        <f>summary_statistics!M9*$L$5</f>
+        <f>summary_statistics!M9*$L$2</f>
         <v>258</v>
       </c>
       <c r="C9" s="2">
-        <f>summary_statistics!N9*$L$5</f>
+        <f>summary_statistics!N9*$L$2</f>
         <v>51000</v>
       </c>
       <c r="D9" s="2">
-        <f>summary_statistics!O9*$L$5</f>
-        <v>204</v>
+        <f>summary_statistics!O9*$L$2</f>
+        <v>215</v>
       </c>
       <c r="E9" s="2">
-        <f>summary_statistics!P9*$L$5</f>
+        <f>summary_statistics!P9*$L$2</f>
         <v>161</v>
       </c>
       <c r="F9" s="2">
-        <f>summary_statistics!Q9*$L$5</f>
-        <v>43</v>
+        <f>summary_statistics!Q9*$L$2</f>
+        <v>54</v>
       </c>
       <c r="G9" s="2">
-        <f>summary_statistics!R9*$L$5</f>
-        <v>123.20460800000001</v>
+        <f>summary_statistics!R9*$L$2</f>
+        <v>140.34860800000001</v>
       </c>
       <c r="H9" s="2">
-        <f>summary_statistics!S9*$L$5</f>
+        <f>summary_statistics!S9*$L$2</f>
         <v>23.507608000000001</v>
       </c>
       <c r="I9" s="2">
-        <f>summary_statistics!T9*$L$5</f>
-        <v>99.697000000000003</v>
+        <f>summary_statistics!T9*$L$2</f>
+        <v>116.84099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>summary_statistics!A10</f>
         <v>2017</v>
       </c>
       <c r="B10" s="2">
-        <f>summary_statistics!M10*$L$5</f>
+        <f>summary_statistics!M10*$L$2</f>
         <v>310</v>
       </c>
       <c r="C10" s="2">
-        <f>summary_statistics!N10*$L$5</f>
+        <f>summary_statistics!N10*$L$2</f>
         <v>63000</v>
       </c>
       <c r="D10" s="2">
-        <f>summary_statistics!O10*$L$5</f>
-        <v>315</v>
+        <f>summary_statistics!O10*$L$2</f>
+        <v>326</v>
       </c>
       <c r="E10" s="2">
-        <f>summary_statistics!P10*$L$5</f>
+        <f>summary_statistics!P10*$L$2</f>
         <v>269</v>
       </c>
       <c r="F10" s="2">
-        <f>summary_statistics!Q10*$L$5</f>
-        <v>46</v>
+        <f>summary_statistics!Q10*$L$2</f>
+        <v>57</v>
       </c>
       <c r="G10" s="2">
-        <f>summary_statistics!R10*$L$5</f>
-        <v>140.57127744444446</v>
+        <f>summary_statistics!R10*$L$2</f>
+        <v>157.71527744444447</v>
       </c>
       <c r="H10" s="2">
-        <f>summary_statistics!S10*$L$5</f>
+        <f>summary_statistics!S10*$L$2</f>
         <v>36.953277444444446</v>
       </c>
       <c r="I10" s="2">
-        <f>summary_statistics!T10*$L$5</f>
-        <v>103.61800000000001</v>
+        <f>summary_statistics!T10*$L$2</f>
+        <v>120.762</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>summary_statistics!A11</f>
         <v>2018</v>
       </c>
       <c r="B11" s="2">
-        <f>summary_statistics!M11*$L$5</f>
+        <f>summary_statistics!M11*$L$2</f>
         <v>382</v>
       </c>
       <c r="C11" s="2">
-        <f>summary_statistics!N11*$L$5</f>
+        <f>summary_statistics!N11*$L$2</f>
         <v>68000</v>
       </c>
       <c r="D11" s="2">
-        <f>summary_statistics!O11*$L$5</f>
-        <v>503</v>
+        <f>summary_statistics!O11*$L$2</f>
+        <v>514</v>
       </c>
       <c r="E11" s="2">
-        <f>summary_statistics!P11*$L$5</f>
+        <f>summary_statistics!P11*$L$2</f>
         <v>449</v>
       </c>
       <c r="F11" s="2">
-        <f>summary_statistics!Q11*$L$5</f>
-        <v>54</v>
+        <f>summary_statistics!Q11*$L$2</f>
+        <v>65</v>
       </c>
       <c r="G11" s="2">
-        <f>summary_statistics!R11*$L$5</f>
-        <v>223.05531300000001</v>
+        <f>summary_statistics!R11*$L$2</f>
+        <v>240.19931300000002</v>
       </c>
       <c r="H11" s="2">
-        <f>summary_statistics!S11*$L$5</f>
+        <f>summary_statistics!S11*$L$2</f>
         <v>73.647312999999997</v>
       </c>
       <c r="I11" s="2">
-        <f>summary_statistics!T11*$L$5</f>
-        <v>149.40800000000002</v>
+        <f>summary_statistics!T11*$L$2</f>
+        <v>166.55199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>summary_statistics!A12</f>
         <v>2019</v>
       </c>
       <c r="B12" s="2">
-        <f>summary_statistics!M12*$L$5</f>
+        <f>summary_statistics!M12*$L$2</f>
         <v>448</v>
       </c>
       <c r="C12" s="2">
-        <f>summary_statistics!N12*$L$5</f>
+        <f>summary_statistics!N12*$L$2</f>
         <v>87760</v>
       </c>
       <c r="D12" s="2">
-        <f>summary_statistics!O12*$L$5</f>
-        <v>702</v>
+        <f>summary_statistics!O12*$L$2</f>
+        <v>713</v>
       </c>
       <c r="E12" s="2">
-        <f>summary_statistics!P12*$L$5</f>
+        <f>summary_statistics!P12*$L$2</f>
         <v>641</v>
       </c>
       <c r="F12" s="2">
-        <f>summary_statistics!Q12*$L$5</f>
-        <v>61</v>
+        <f>summary_statistics!Q12*$L$2</f>
+        <v>72</v>
       </c>
       <c r="G12" s="2">
-        <f>summary_statistics!R12*$L$5</f>
-        <v>301.88771300000002</v>
+        <f>summary_statistics!R12*$L$2</f>
+        <v>319.03171300000002</v>
       </c>
       <c r="H12" s="2">
-        <f>summary_statistics!S12*$L$5</f>
+        <f>summary_statistics!S12*$L$2</f>
         <v>117.359713</v>
       </c>
       <c r="I12" s="2">
-        <f>summary_statistics!T12*$L$5</f>
-        <v>184.52800000000002</v>
+        <f>summary_statistics!T12*$L$2</f>
+        <v>201.672</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>summary_statistics!A13</f>
         <v>2020</v>
       </c>
       <c r="B13" s="2">
-        <f>summary_statistics!M13*$L$5</f>
+        <f>summary_statistics!M13*$L$2</f>
         <v>501</v>
       </c>
       <c r="C13" s="2">
-        <f>summary_statistics!N13*$L$5</f>
+        <f>summary_statistics!N13*$L$2</f>
         <v>96331</v>
       </c>
       <c r="D13" s="2">
-        <f>summary_statistics!O13*$L$5</f>
-        <v>871</v>
+        <f>summary_statistics!O13*$L$2</f>
+        <v>882</v>
       </c>
       <c r="E13" s="2">
-        <f>summary_statistics!P13*$L$5</f>
+        <f>summary_statistics!P13*$L$2</f>
         <v>804</v>
       </c>
       <c r="F13" s="2">
-        <f>summary_statistics!Q13*$L$5</f>
-        <v>67</v>
+        <f>summary_statistics!Q13*$L$2</f>
+        <v>78</v>
       </c>
       <c r="G13" s="2">
-        <f>summary_statistics!R13*$L$5</f>
-        <v>392.64045300000004</v>
+        <f>summary_statistics!R13*$L$2</f>
+        <v>409.78445300000004</v>
       </c>
       <c r="H13" s="2">
-        <f>summary_statistics!S13*$L$5</f>
+        <f>summary_statistics!S13*$L$2</f>
         <v>170.99245300000001</v>
       </c>
       <c r="I13" s="2">
-        <f>summary_statistics!T13*$L$5</f>
-        <v>221.64800000000002</v>
+        <f>summary_statistics!T13*$L$2</f>
+        <v>238.792</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>summary_statistics!A14</f>
         <v>2021</v>
       </c>
       <c r="B14" s="2">
-        <f>summary_statistics!M14*$L$5</f>
+        <f>summary_statistics!M14*$L$2</f>
         <v>541</v>
       </c>
       <c r="C14" s="2">
-        <f>summary_statistics!N14*$L$5</f>
+        <f>summary_statistics!N14*$L$2</f>
         <v>111476</v>
       </c>
       <c r="D14" s="2">
-        <f>summary_statistics!O14*$L$5</f>
-        <v>994</v>
+        <f>summary_statistics!O14*$L$2</f>
+        <v>1005</v>
       </c>
       <c r="E14" s="2">
-        <f>summary_statistics!P14*$L$5</f>
+        <f>summary_statistics!P14*$L$2</f>
         <v>915</v>
       </c>
       <c r="F14" s="2">
-        <f>summary_statistics!Q14*$L$5</f>
-        <v>79</v>
+        <f>summary_statistics!Q14*$L$2</f>
+        <v>90</v>
       </c>
       <c r="G14" s="2">
-        <f>summary_statistics!R14*$L$5</f>
-        <v>524.54616936363641</v>
+        <f>summary_statistics!R14*$L$2</f>
+        <v>541.69016936363641</v>
       </c>
       <c r="H14" s="2">
-        <f>summary_statistics!S14*$L$5</f>
+        <f>summary_statistics!S14*$L$2</f>
         <v>214.53453300000001</v>
       </c>
       <c r="I14" s="2">
-        <f>summary_statistics!T14*$L$5</f>
-        <v>310.0116363636364</v>
+        <f>summary_statistics!T14*$L$2</f>
+        <v>327.1556363636364</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>summary_statistics!A15</f>
         <v>2022</v>
       </c>
       <c r="B15" s="2">
-        <f>summary_statistics!M15*$L$5</f>
+        <f>summary_statistics!M15*$L$2</f>
         <v>564</v>
       </c>
       <c r="C15" s="2">
-        <f>summary_statistics!N15*$L$5</f>
+        <f>summary_statistics!N15*$L$2</f>
         <v>120214</v>
       </c>
       <c r="D15" s="2">
-        <f>summary_statistics!O15*$L$5</f>
-        <v>1171</v>
+        <f>summary_statistics!O15*$L$2</f>
+        <v>1182</v>
       </c>
       <c r="E15" s="2">
-        <f>summary_statistics!P15*$L$5</f>
+        <f>summary_statistics!P15*$L$2</f>
         <v>1087</v>
       </c>
       <c r="F15" s="2">
-        <f>summary_statistics!Q15*$L$5</f>
-        <v>84</v>
+        <f>summary_statistics!Q15*$L$2</f>
+        <v>95</v>
       </c>
       <c r="G15" s="2">
-        <f>summary_statistics!R15*$L$5</f>
-        <v>605.90306318429361</v>
+        <f>summary_statistics!R15*$L$2</f>
+        <v>623.04706318429362</v>
       </c>
       <c r="H15" s="2">
-        <f>summary_statistics!S15*$L$5</f>
+        <f>summary_statistics!S15*$L$2</f>
         <v>276.27444559999998</v>
       </c>
       <c r="I15" s="2">
-        <f>summary_statistics!T15*$L$5</f>
-        <v>329.62861758429369</v>
+        <f>summary_statistics!T15*$L$2</f>
+        <v>346.7726175842937</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>summary_statistics!A16</f>
         <v>2023</v>
       </c>
       <c r="B16" s="2">
-        <f>summary_statistics!M16*$L$5</f>
+        <f>summary_statistics!M16*$L$2</f>
         <v>575</v>
       </c>
       <c r="C16" s="2">
-        <f>summary_statistics!N16*$L$5</f>
+        <f>summary_statistics!N16*$L$2</f>
         <v>131180</v>
       </c>
       <c r="D16" s="2">
-        <f>summary_statistics!O16*$L$5</f>
-        <v>1316</v>
+        <f>summary_statistics!O16*$L$2</f>
+        <v>1327</v>
       </c>
       <c r="E16" s="2">
-        <f>summary_statistics!P16*$L$5</f>
+        <f>summary_statistics!P16*$L$2</f>
         <v>1227</v>
       </c>
       <c r="F16" s="2">
-        <f>summary_statistics!Q16*$L$5</f>
-        <v>89</v>
+        <f>summary_statistics!Q16*$L$2</f>
+        <v>100</v>
       </c>
       <c r="G16" s="2">
-        <f>summary_statistics!R16*$L$5</f>
-        <v>670.66647018429364</v>
+        <f>summary_statistics!R16*$L$2</f>
+        <v>687.81047018429365</v>
       </c>
       <c r="H16" s="2">
-        <f>summary_statistics!S16*$L$5</f>
+        <f>summary_statistics!S16*$L$2</f>
         <v>319.11785259999999</v>
       </c>
       <c r="I16" s="2">
-        <f>summary_statistics!T16*$L$5</f>
-        <v>351.54861758429371</v>
+        <f>summary_statistics!T16*$L$2</f>
+        <v>368.69261758429371</v>
       </c>
     </row>
   </sheetData>
@@ -56416,17 +56486,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5DAA8E-9AD4-4C75-891E-87411413E3F2}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="6" width="10.25" style="3" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="6" width="10.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -56482,7 +56552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -56552,7 +56622,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -56622,7 +56692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -56692,7 +56762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -56762,7 +56832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>SUM(B2:B5)</f>
         <v>1</v>
@@ -56791,7 +56861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="3">
         <f>131000/COUNTIFS([1]EC_projects_original!G:G, "realized", [1]EC_projects_original!P:P, "&gt;0")</f>
         <v>98.718914845516196</v>
@@ -56812,7 +56882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -56841,7 +56911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -56869,7 +56939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -56897,7 +56967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -56925,7 +56995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>SUM(B8:B11)</f>
         <v>0.99999999999999989</v>

--- a/Energy community potential model/_EC_summary.xlsx
+++ b/Energy community potential model/_EC_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Energy-community-potential-model\Energy community potential model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0695E7FE-E33E-4ECF-977F-AB49BEE4B4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDEAB92-E323-42EE-B004-906942CBF556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1284" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2AD6F2B3-B3D8-4900-A927-DF019433309F}"/>
   </bookViews>
@@ -5755,7 +5755,9 @@
       <sheetName val="energy_communities"/>
       <sheetName val="EC_projects_original"/>
       <sheetName val="EC_projects"/>
+      <sheetName val="Bevolking en huishoudens (x mln"/>
       <sheetName val="EC_annual_development"/>
+      <sheetName val="calibration_statistics"/>
       <sheetName val="province"/>
       <sheetName val="municipalities"/>
     </sheetNames>
@@ -54337,9 +54339,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -54700,12 +54704,12 @@
       <selection activeCell="V16" sqref="V16:V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -54761,7 +54765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -54829,7 +54833,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -54897,7 +54901,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -54965,7 +54969,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -55033,7 +55037,7 @@
         <v>4257</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -55101,7 +55105,7 @@
         <v>6237</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -55169,7 +55173,7 @@
         <v>8910</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -55237,7 +55241,7 @@
         <v>14256</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -55311,7 +55315,7 @@
         <v>21285</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -55386,7 +55390,7 @@
         <v>32274</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -55461,7 +55465,7 @@
         <v>50886</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -55536,7 +55540,7 @@
         <v>70587</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -55611,7 +55615,7 @@
         <v>87318</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -55686,7 +55690,7 @@
         <v>99495</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -55761,7 +55765,7 @@
         <v>117018</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2023</v>
       </c>
@@ -55837,7 +55841,7 @@
       </c>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N17">
         <f>N16/1327</f>
         <v>98.854559155990955</v>
@@ -55857,14 +55861,14 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>summary_statistics!A1</f>
         <v>year</v>
@@ -55905,7 +55909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -55945,7 +55949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>summary_statistics!A3</f>
         <v>2010</v>
@@ -55983,7 +55987,7 @@
         <v>35.872</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>summary_statistics!A4</f>
         <v>2011</v>
@@ -56021,7 +56025,7 @@
         <v>35.872</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>summary_statistics!A5</f>
         <v>2012</v>
@@ -56059,7 +56063,7 @@
         <v>58.366</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>summary_statistics!A6</f>
         <v>2013</v>
@@ -56097,7 +56101,7 @@
         <v>71.516000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>summary_statistics!A7</f>
         <v>2014</v>
@@ -56135,7 +56139,7 @@
         <v>72.366</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>summary_statistics!A8</f>
         <v>2015</v>
@@ -56173,7 +56177,7 @@
         <v>78.290999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>summary_statistics!A9</f>
         <v>2016</v>
@@ -56211,7 +56215,7 @@
         <v>116.84099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>summary_statistics!A10</f>
         <v>2017</v>
@@ -56249,7 +56253,7 @@
         <v>120.762</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>summary_statistics!A11</f>
         <v>2018</v>
@@ -56287,7 +56291,7 @@
         <v>166.55199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>summary_statistics!A12</f>
         <v>2019</v>
@@ -56325,7 +56329,7 @@
         <v>201.672</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>summary_statistics!A13</f>
         <v>2020</v>
@@ -56363,7 +56367,7 @@
         <v>238.792</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>summary_statistics!A14</f>
         <v>2021</v>
@@ -56401,7 +56405,7 @@
         <v>327.1556363636364</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>summary_statistics!A15</f>
         <v>2022</v>
@@ -56439,7 +56443,7 @@
         <v>346.7726175842937</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>summary_statistics!A16</f>
         <v>2023</v>
@@ -56487,16 +56491,16 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="6" width="10.28515625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="6" width="10.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -56552,7 +56556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -56622,7 +56626,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -56692,7 +56696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -56762,7 +56766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -56832,7 +56836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6">
         <f>SUM(B2:B5)</f>
         <v>1</v>
@@ -56861,7 +56865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <f>131000/COUNTIFS([1]EC_projects_original!G:G, "realized", [1]EC_projects_original!P:P, "&gt;0")</f>
         <v>98.718914845516196</v>
@@ -56882,7 +56886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -56911,7 +56915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -56939,7 +56943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -56967,7 +56971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -56995,7 +56999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B12">
         <f>SUM(B8:B11)</f>
         <v>0.99999999999999989</v>
